--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_0.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_20_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4481090.271836434</v>
+        <v>-4481756.889272855</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>392548.0828146758</v>
+        <v>392548.0828146755</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058548</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35.11593247269192</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="I11" t="n">
-        <v>36.4287308127948</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>23.12798498931303</v>
+        <v>23.12798498931295</v>
       </c>
       <c r="T11" t="n">
-        <v>18.30111863218008</v>
+        <v>18.30111863218002</v>
       </c>
       <c r="U11" t="n">
-        <v>46.03812530998761</v>
+        <v>46.0381253099877</v>
       </c>
       <c r="V11" t="n">
-        <v>84.54481721446609</v>
+        <v>71.54466328548699</v>
       </c>
       <c r="W11" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>46.05068412375554</v>
       </c>
       <c r="T12" t="n">
+        <v>10.83321277868799</v>
+      </c>
+      <c r="U12" t="n">
+        <v>33.1161990041195</v>
+      </c>
+      <c r="V12" t="n">
+        <v>36.53747918923767</v>
+      </c>
+      <c r="W12" t="n">
         <v>84.54481721446609</v>
       </c>
-      <c r="U12" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="V12" t="n">
-        <v>63.94443324495353</v>
-      </c>
-      <c r="W12" t="n">
-        <v>62.59314185084708</v>
-      </c>
       <c r="X12" t="n">
-        <v>13.20147271330609</v>
+        <v>13.20147271330603</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.2728444078611</v>
+        <v>19.27284440786104</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>31.23138271479824</v>
+        <v>31.23138271479818</v>
       </c>
       <c r="T13" t="n">
-        <v>19.62677120258709</v>
+        <v>19.62677120258704</v>
       </c>
       <c r="U13" t="n">
         <v>84.54481721446609</v>
       </c>
       <c r="V13" t="n">
-        <v>40.99757345828539</v>
+        <v>40.99757345828533</v>
       </c>
       <c r="W13" t="n">
         <v>84.54481721446609</v>
       </c>
       <c r="X13" t="n">
-        <v>17.80801368207801</v>
+        <v>17.80801368207796</v>
       </c>
       <c r="Y13" t="n">
-        <v>13.0298310880039</v>
+        <v>13.02983108800385</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>35.11593247269232</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>35.11593247269226</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>36.42873081279475</v>
+        <v>36.42873081279486</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>23.12798498931298</v>
+        <v>23.127984989313</v>
       </c>
       <c r="T14" t="n">
-        <v>18.30111863218002</v>
+        <v>18.30111863217998</v>
       </c>
       <c r="U14" t="n">
         <v>46.0381253099877</v>
       </c>
       <c r="V14" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>84.54481721446609</v>
@@ -1728,28 +1728,28 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="T15" t="n">
-        <v>84.54481721446609</v>
+        <v>24.79069991722823</v>
       </c>
       <c r="U15" t="n">
         <v>33.1161990041195</v>
       </c>
       <c r="V15" t="n">
-        <v>36.53747918923767</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="W15" t="n">
-        <v>84.54481721446609</v>
+        <v>62.59314185084702</v>
       </c>
       <c r="X15" t="n">
-        <v>64.04783529214363</v>
+        <v>13.20147271330603</v>
       </c>
       <c r="Y15" t="n">
         <v>19.27284440786104</v>
@@ -1965,19 +1965,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.037534323605957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>84.54481721446609</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="T18" t="n">
-        <v>68.42954067889573</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>84.54481721446609</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>74.46707500250172</v>
       </c>
     </row>
     <row r="19">
@@ -2090,13 +2090,13 @@
         <v>36.04601974130372</v>
       </c>
       <c r="F20" t="n">
-        <v>67.76635731968102</v>
+        <v>67.76635731968105</v>
       </c>
       <c r="G20" t="n">
         <v>83.39309993609689</v>
       </c>
       <c r="H20" t="n">
-        <v>11.46376063065049</v>
+        <v>11.4637606306505</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>68.42954067889573</v>
       </c>
       <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>84.54481721446609</v>
       </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Y21" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>83.39309993609689</v>
       </c>
       <c r="H23" t="n">
-        <v>11.46376063065049</v>
+        <v>11.4637606306505</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R24" t="n">
         <v>84.54481721446609</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>84.54481721446609</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>68.42954067889573</v>
       </c>
       <c r="Y24" t="n">
-        <v>74.46707500250172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.246796807794</v>
+        <v>161.2467968077939</v>
       </c>
       <c r="C26" t="n">
-        <v>137.3650538111395</v>
+        <v>137.3650538111394</v>
       </c>
       <c r="D26" t="n">
-        <v>124.931716072188</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6384684915968</v>
+        <v>158.6384684915967</v>
       </c>
       <c r="F26" t="n">
-        <v>190.3588060699742</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G26" t="n">
-        <v>205.98554868639</v>
+        <v>205.9855486863899</v>
       </c>
       <c r="H26" t="n">
-        <v>134.0562093809436</v>
+        <v>134.0562093809435</v>
       </c>
       <c r="I26" t="n">
-        <v>27.6997289689196</v>
+        <v>27.6997289689199</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39898314543822</v>
+        <v>14.39898314543813</v>
       </c>
       <c r="T26" t="n">
-        <v>9.57211678830526</v>
+        <v>9.57211678830515</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30912346611288</v>
+        <v>37.30912346611319</v>
       </c>
       <c r="V26" t="n">
-        <v>108.0393400391127</v>
+        <v>108.0393400391126</v>
       </c>
       <c r="W26" t="n">
-        <v>125.0560202557276</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9422707246668</v>
+        <v>146.9422707246667</v>
       </c>
       <c r="Y26" t="n">
-        <v>169.4451238484106</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>90.22629872319546</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R27" t="n">
-        <v>134.3151594521598</v>
+        <v>26.42025642297481</v>
       </c>
       <c r="S27" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.104210934813234</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80847734536292</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.86414000697226</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X27" t="n">
-        <v>4.472470869431277</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.54384256398629</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.50238087092342</v>
+        <v>22.50238087092331</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89776935871228</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81581537059132</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26857161441058</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W28" t="n">
-        <v>77.470263519296</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X28" t="n">
-        <v>9.079011838203201</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.300829244129091</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>137.3650538111394</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9317160721879</v>
+        <v>124.9317160721878</v>
       </c>
       <c r="E29" t="n">
         <v>158.6384684915967</v>
       </c>
       <c r="F29" t="n">
-        <v>190.3588060699741</v>
+        <v>190.358806069974</v>
       </c>
       <c r="G29" t="n">
         <v>205.9855486863899</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39898314543818</v>
+        <v>14.39898314543813</v>
       </c>
       <c r="T29" t="n">
-        <v>9.572116788305175</v>
+        <v>9.572116788305106</v>
       </c>
       <c r="U29" t="n">
-        <v>37.30912346611364</v>
+        <v>37.30912346611319</v>
       </c>
       <c r="V29" t="n">
         <v>108.0393400391126</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0560202557275</v>
+        <v>125.0560202557274</v>
       </c>
       <c r="X29" t="n">
         <v>146.9422707246667</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4451238484105</v>
+        <v>169.4451238484104</v>
       </c>
     </row>
     <row r="30">
@@ -2868,10 +2868,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>15.65259929627457</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2913,31 +2913,31 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R30" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.104210934813149</v>
+        <v>2.104210934813122</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2276407302841</v>
+        <v>24.38719716024464</v>
       </c>
       <c r="V30" t="n">
-        <v>27.80847734536283</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>53.86414000697218</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>94.6987695926271</v>
+        <v>4.472470869431163</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5438425639862</v>
+        <v>10.54384256398617</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.50238087092334</v>
+        <v>22.50238087092331</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871217</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059121</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441046</v>
       </c>
       <c r="W31" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929588</v>
       </c>
       <c r="X31" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203087</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244128977</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>124.9317160721879</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6384684915967</v>
+        <v>158.6384684915968</v>
       </c>
       <c r="F32" t="n">
         <v>190.3588060699741</v>
@@ -3047,7 +3047,7 @@
         <v>134.0562093809435</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69972896891989</v>
+        <v>27.69972896891938</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39898314543814</v>
+        <v>14.39898314543819</v>
       </c>
       <c r="T32" t="n">
-        <v>9.572116788305181</v>
+        <v>9.572116788305209</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30912346611342</v>
+        <v>37.30912346611282</v>
       </c>
       <c r="V32" t="n">
         <v>108.0393400391126</v>
@@ -3108,7 +3108,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R33" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T33" t="n">
-        <v>2.104210934813149</v>
+        <v>13.80522554012883</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38719716024466</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V33" t="n">
-        <v>143.3570681142322</v>
+        <v>27.80847734536286</v>
       </c>
       <c r="W33" t="n">
-        <v>53.86414000697218</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.472470869431191</v>
+        <v>4.47247086943122</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.5438425639862</v>
+        <v>10.54384256398623</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.50238087092334</v>
+        <v>22.50238087092337</v>
       </c>
       <c r="T34" t="n">
-        <v>10.8977693587122</v>
+        <v>10.89776935871223</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81581537059124</v>
+        <v>75.81581537059127</v>
       </c>
       <c r="V34" t="n">
-        <v>32.26857161441049</v>
+        <v>32.26857161441052</v>
       </c>
       <c r="W34" t="n">
-        <v>77.47026351929591</v>
+        <v>77.47026351929594</v>
       </c>
       <c r="X34" t="n">
-        <v>9.079011838203115</v>
+        <v>9.079011838203144</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.300829244129005</v>
+        <v>4.300829244129034</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C35" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D35" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635604</v>
       </c>
       <c r="E35" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F35" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G35" t="n">
         <v>182.5909004777625</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I35" t="n">
-        <v>4.305080760292554</v>
+        <v>4.30508076029248</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,19 +3320,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>13.91447525748546</v>
+        <v>13.91447525748535</v>
       </c>
       <c r="V35" t="n">
-        <v>84.64469183048527</v>
+        <v>84.64469183048516</v>
       </c>
       <c r="W35" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471</v>
       </c>
       <c r="X35" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y35" t="n">
-        <v>146.0504756397831</v>
+        <v>146.050475639783</v>
       </c>
     </row>
     <row r="36">
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>26.10256536531603</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3387,25 +3387,25 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R36" t="n">
         <v>134.3151594521598</v>
       </c>
       <c r="S36" t="n">
-        <v>130.6612012191531</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516172197</v>
       </c>
       <c r="V36" t="n">
-        <v>4.413829136735501</v>
+        <v>4.413829136735387</v>
       </c>
       <c r="W36" t="n">
-        <v>30.46949179834485</v>
+        <v>30.46949179834473</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196379</v>
       </c>
       <c r="V37" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405783046</v>
       </c>
       <c r="W37" t="n">
-        <v>54.07561531066858</v>
+        <v>54.07561531066847</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3506,7 +3506,7 @@
         <v>113.970405602512</v>
       </c>
       <c r="D38" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635604</v>
       </c>
       <c r="E38" t="n">
         <v>135.2438202829693</v>
@@ -3521,7 +3521,7 @@
         <v>110.6615611723161</v>
       </c>
       <c r="I38" t="n">
-        <v>4.305080760292469</v>
+        <v>4.30508076029248</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>13.91447525748538</v>
+        <v>13.91447525748535</v>
       </c>
       <c r="V38" t="n">
-        <v>84.64469183048519</v>
+        <v>84.64469183048516</v>
       </c>
       <c r="W38" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471</v>
       </c>
       <c r="X38" t="n">
         <v>123.5476225160393</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.0504756397831</v>
+        <v>146.050475639783</v>
       </c>
     </row>
     <row r="39">
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R39" t="n">
-        <v>34.77880321625226</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516172197</v>
       </c>
       <c r="V39" t="n">
-        <v>4.413829136735416</v>
+        <v>4.413829136735387</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>203.5277886462217</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.42116716196382</v>
+        <v>52.42116716196379</v>
       </c>
       <c r="V40" t="n">
-        <v>8.873923405783074</v>
+        <v>8.873923405783046</v>
       </c>
       <c r="W40" t="n">
-        <v>54.0756153106685</v>
+        <v>54.07561531066847</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991664</v>
       </c>
       <c r="C41" t="n">
-        <v>113.9704056025121</v>
+        <v>113.9704056025119</v>
       </c>
       <c r="D41" t="n">
-        <v>101.5370678635605</v>
+        <v>101.5370678635604</v>
       </c>
       <c r="E41" t="n">
-        <v>135.2438202829694</v>
+        <v>135.2438202829692</v>
       </c>
       <c r="F41" t="n">
-        <v>166.9641578613467</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G41" t="n">
-        <v>182.5909004777626</v>
+        <v>182.5909004777624</v>
       </c>
       <c r="H41" t="n">
-        <v>110.6615611723162</v>
+        <v>110.661561172316</v>
       </c>
       <c r="I41" t="n">
-        <v>4.305080760292565</v>
+        <v>4.305080760292412</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3794,19 +3794,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>13.914475257485</v>
+        <v>13.91447525748567</v>
       </c>
       <c r="V41" t="n">
-        <v>84.64469183048527</v>
+        <v>84.6446918304851</v>
       </c>
       <c r="W41" t="n">
-        <v>101.6613720471001</v>
+        <v>101.6613720471</v>
       </c>
       <c r="X41" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160392</v>
       </c>
       <c r="Y41" t="n">
-        <v>146.0504756397831</v>
+        <v>146.050475639783</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3816,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.037534323605957</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U42" t="n">
         <v>237.2276407302841</v>
       </c>
       <c r="V42" t="n">
-        <v>4.413829136735501</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>116.3270981373742</v>
+        <v>65.24829501459647</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>52.42116716196391</v>
+        <v>52.42116716196374</v>
       </c>
       <c r="V43" t="n">
-        <v>8.87392340578316</v>
+        <v>8.873923405782989</v>
       </c>
       <c r="W43" t="n">
-        <v>54.07561531066858</v>
+        <v>54.07561531066841</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.8521485991666</v>
+        <v>137.8521485991665</v>
       </c>
       <c r="C44" t="n">
-        <v>113.9704056025121</v>
+        <v>113.970405602512</v>
       </c>
       <c r="D44" t="n">
-        <v>101.5370678635606</v>
+        <v>101.5370678635605</v>
       </c>
       <c r="E44" t="n">
-        <v>135.2438202829695</v>
+        <v>135.2438202829693</v>
       </c>
       <c r="F44" t="n">
-        <v>166.9641578613468</v>
+        <v>166.9641578613466</v>
       </c>
       <c r="G44" t="n">
-        <v>182.5909004777626</v>
+        <v>182.5909004777625</v>
       </c>
       <c r="H44" t="n">
-        <v>110.6615611723162</v>
+        <v>110.6615611723161</v>
       </c>
       <c r="I44" t="n">
-        <v>4.305080760292622</v>
+        <v>4.305080760292508</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>13.91447525748552</v>
+        <v>13.91447525748538</v>
       </c>
       <c r="V44" t="n">
-        <v>84.64469183048533</v>
+        <v>84.64469183048519</v>
       </c>
       <c r="W44" t="n">
-        <v>101.6613720471002</v>
+        <v>101.6613720471001</v>
       </c>
       <c r="X44" t="n">
-        <v>123.5476225160394</v>
+        <v>123.5476225160393</v>
       </c>
       <c r="Y44" t="n">
-        <v>146.0504756397832</v>
+        <v>146.0504756397831</v>
       </c>
     </row>
     <row r="45">
@@ -4101,25 +4101,25 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>115.4082982689443</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276407302841</v>
+        <v>0.9925489516172481</v>
       </c>
       <c r="V45" t="n">
-        <v>58.11480969218387</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>30.4694917983449</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.42116716196396</v>
+        <v>52.42116716196382</v>
       </c>
       <c r="V46" t="n">
-        <v>8.873923405783216</v>
+        <v>8.873923405783074</v>
       </c>
       <c r="W46" t="n">
-        <v>54.07561531066864</v>
+        <v>54.0756153106685</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="C11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="D11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="E11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="F11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="G11" t="n">
-        <v>43.56028316785911</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="H11" t="n">
-        <v>43.56028316785911</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="I11" t="n">
         <v>6.763585377157288</v>
@@ -5045,46 +5045,46 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L11" t="n">
-        <v>90.46295441947872</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M11" t="n">
-        <v>174.1623234618002</v>
+        <v>138.3667488501958</v>
       </c>
       <c r="N11" t="n">
-        <v>257.8616925041216</v>
+        <v>218.2274762775305</v>
       </c>
       <c r="O11" t="n">
-        <v>328.2841766533316</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="P11" t="n">
-        <v>328.2841766533316</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="Q11" t="n">
-        <v>328.2841766533316</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="R11" t="n">
         <v>338.1792688578644</v>
       </c>
       <c r="S11" t="n">
-        <v>314.8176678585583</v>
+        <v>314.8176678585584</v>
       </c>
       <c r="T11" t="n">
-        <v>296.3316894422147</v>
+        <v>296.3316894422149</v>
       </c>
       <c r="U11" t="n">
         <v>249.8285325634394</v>
       </c>
       <c r="V11" t="n">
-        <v>164.4297272963019</v>
+        <v>177.5611959114322</v>
       </c>
       <c r="W11" t="n">
-        <v>79.03092202916409</v>
+        <v>177.5611959114322</v>
       </c>
       <c r="X11" t="n">
-        <v>79.03092202916409</v>
+        <v>177.5611959114322</v>
       </c>
       <c r="Y11" t="n">
-        <v>79.03092202916409</v>
+        <v>177.5611959114322</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5127,7 @@
         <v>6.763585377157288</v>
       </c>
       <c r="M12" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173090004</v>
       </c>
       <c r="N12" t="n">
         <v>170.7805307732215</v>
@@ -5142,25 +5142,25 @@
         <v>338.1792688578644</v>
       </c>
       <c r="R12" t="n">
-        <v>338.1792688578644</v>
+        <v>252.7804635907269</v>
       </c>
       <c r="S12" t="n">
-        <v>338.1792688578644</v>
+        <v>206.2646210414789</v>
       </c>
       <c r="T12" t="n">
-        <v>252.7804635907269</v>
+        <v>195.321981871087</v>
       </c>
       <c r="U12" t="n">
-        <v>167.3816583235894</v>
+        <v>161.8712758063198</v>
       </c>
       <c r="V12" t="n">
-        <v>102.7913217125252</v>
+        <v>124.9647311707262</v>
       </c>
       <c r="W12" t="n">
-        <v>39.56592590358879</v>
+        <v>39.56592590358868</v>
       </c>
       <c r="X12" t="n">
-        <v>26.23110498105739</v>
+        <v>26.23110498105733</v>
       </c>
       <c r="Y12" t="n">
         <v>6.763585377157288</v>
@@ -5203,7 +5203,7 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L13" t="n">
-        <v>90.46295441947872</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="M13" t="n">
         <v>90.46295441947872</v>
@@ -5212,34 +5212,34 @@
         <v>174.1623234618002</v>
       </c>
       <c r="O13" t="n">
-        <v>174.1623234618002</v>
+        <v>223.9977551556834</v>
       </c>
       <c r="P13" t="n">
-        <v>223.9977551556837</v>
+        <v>223.9977551556834</v>
       </c>
       <c r="Q13" t="n">
-        <v>300.5762136864964</v>
+        <v>300.5762136864961</v>
       </c>
       <c r="R13" t="n">
-        <v>301.4940970687582</v>
+        <v>301.4940970687579</v>
       </c>
       <c r="S13" t="n">
-        <v>269.9472458416892</v>
+        <v>269.947245841689</v>
       </c>
       <c r="T13" t="n">
-        <v>250.1222244249346</v>
+        <v>250.1222244249344</v>
       </c>
       <c r="U13" t="n">
-        <v>164.7234191577971</v>
+        <v>164.7234191577969</v>
       </c>
       <c r="V13" t="n">
-        <v>123.3117287958927</v>
+        <v>123.3117287958925</v>
       </c>
       <c r="W13" t="n">
-        <v>37.91292352875519</v>
+        <v>37.91292352875507</v>
       </c>
       <c r="X13" t="n">
-        <v>19.92503092059557</v>
+        <v>19.92503092059552</v>
       </c>
       <c r="Y13" t="n">
         <v>6.763585377157288</v>
@@ -5252,52 +5252,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.56028316785905</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="C14" t="n">
-        <v>43.56028316785905</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="D14" t="n">
-        <v>43.56028316785905</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="E14" t="n">
-        <v>43.56028316785905</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="F14" t="n">
-        <v>43.56028316785905</v>
+        <v>79.03092202916449</v>
       </c>
       <c r="G14" t="n">
-        <v>43.56028316785905</v>
+        <v>43.56028316785917</v>
       </c>
       <c r="H14" t="n">
-        <v>43.56028316785905</v>
+        <v>43.56028316785917</v>
       </c>
       <c r="I14" t="n">
         <v>6.763585377157288</v>
       </c>
       <c r="J14" t="n">
-        <v>6.763585377157288</v>
+        <v>90.46295441947872</v>
       </c>
       <c r="K14" t="n">
-        <v>34.78201869967488</v>
+        <v>90.46295441947872</v>
       </c>
       <c r="L14" t="n">
-        <v>83.40584590915871</v>
+        <v>139.0867816289625</v>
       </c>
       <c r="M14" t="n">
-        <v>167.1052149514801</v>
+        <v>222.0661178925172</v>
       </c>
       <c r="N14" t="n">
-        <v>244.5848076110101</v>
+        <v>299.545710552047</v>
       </c>
       <c r="O14" t="n">
-        <v>328.2841766533315</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="P14" t="n">
-        <v>328.2841766533315</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="Q14" t="n">
-        <v>328.2841766533315</v>
+        <v>335.7981340900594</v>
       </c>
       <c r="R14" t="n">
         <v>338.1792688578644</v>
@@ -5306,22 +5306,22 @@
         <v>314.8176678585583</v>
       </c>
       <c r="T14" t="n">
-        <v>296.3316894422148</v>
+        <v>296.3316894422149</v>
       </c>
       <c r="U14" t="n">
         <v>249.8285325634394</v>
       </c>
       <c r="V14" t="n">
-        <v>164.4297272963019</v>
+        <v>249.8285325634394</v>
       </c>
       <c r="W14" t="n">
-        <v>79.03092202916443</v>
+        <v>164.429727296302</v>
       </c>
       <c r="X14" t="n">
-        <v>79.03092202916443</v>
+        <v>164.429727296302</v>
       </c>
       <c r="Y14" t="n">
-        <v>79.03092202916443</v>
+        <v>164.429727296302</v>
       </c>
     </row>
     <row r="15">
@@ -5364,10 +5364,10 @@
         <v>6.763585377157288</v>
       </c>
       <c r="M15" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173090004</v>
       </c>
       <c r="N15" t="n">
-        <v>174.1623234618002</v>
+        <v>170.7805307732215</v>
       </c>
       <c r="O15" t="n">
         <v>254.4798998155429</v>
@@ -5382,19 +5382,19 @@
         <v>332.0807493390705</v>
       </c>
       <c r="S15" t="n">
-        <v>332.0807493390705</v>
+        <v>246.681944071933</v>
       </c>
       <c r="T15" t="n">
-        <v>246.681944071933</v>
+        <v>221.6408330444297</v>
       </c>
       <c r="U15" t="n">
-        <v>213.2312380071658</v>
+        <v>188.1901269796625</v>
       </c>
       <c r="V15" t="n">
-        <v>176.3246933715722</v>
+        <v>102.7913217125251</v>
       </c>
       <c r="W15" t="n">
-        <v>90.92588810443473</v>
+        <v>39.56592590358868</v>
       </c>
       <c r="X15" t="n">
         <v>26.23110498105733</v>
@@ -5428,28 +5428,28 @@
         <v>6.763585377157288</v>
       </c>
       <c r="H16" t="n">
-        <v>6.763585377157288</v>
+        <v>44.71585177580383</v>
       </c>
       <c r="I16" t="n">
-        <v>6.763585377157288</v>
+        <v>44.71585177580383</v>
       </c>
       <c r="J16" t="n">
-        <v>6.763585377157288</v>
+        <v>128.1313985138996</v>
       </c>
       <c r="K16" t="n">
-        <v>90.46295441947872</v>
+        <v>128.1313985138996</v>
       </c>
       <c r="L16" t="n">
-        <v>90.46295441947872</v>
+        <v>128.1313985138996</v>
       </c>
       <c r="M16" t="n">
-        <v>174.1623234618002</v>
+        <v>128.1313985138996</v>
       </c>
       <c r="N16" t="n">
+        <v>211.830767556221</v>
+      </c>
+      <c r="O16" t="n">
         <v>216.8768446441746</v>
-      </c>
-      <c r="O16" t="n">
-        <v>300.5762136864961</v>
       </c>
       <c r="P16" t="n">
         <v>300.5762136864961</v>
@@ -5492,16 +5492,16 @@
         <v>224.7243025594537</v>
       </c>
       <c r="C17" t="n">
-        <v>209.8024792656694</v>
+        <v>209.8024792656695</v>
       </c>
       <c r="D17" t="n">
-        <v>207.4395829809271</v>
+        <v>207.4395829809275</v>
       </c>
       <c r="E17" t="n">
-        <v>171.0294620301153</v>
+        <v>171.0294620301156</v>
       </c>
       <c r="F17" t="n">
-        <v>102.5785960506394</v>
+        <v>102.5785960506396</v>
       </c>
       <c r="G17" t="n">
         <v>18.34314156973353</v>
@@ -5519,34 +5519,34 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L17" t="n">
-        <v>55.38741258664112</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M17" t="n">
-        <v>138.366748850196</v>
+        <v>138.3667488501958</v>
       </c>
       <c r="N17" t="n">
-        <v>215.846341509726</v>
+        <v>215.8463415097256</v>
       </c>
       <c r="O17" t="n">
-        <v>252.0987650477385</v>
+        <v>252.098765047738</v>
       </c>
       <c r="P17" t="n">
-        <v>252.0987650477385</v>
+        <v>252.098765047738</v>
       </c>
       <c r="Q17" t="n">
-        <v>252.0987650477385</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="R17" t="n">
-        <v>252.0987650477385</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="S17" t="n">
-        <v>252.0987650477385</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="T17" t="n">
-        <v>335.7981340900599</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="U17" t="n">
-        <v>335.7981340900599</v>
+        <v>323.7716912337958</v>
       </c>
       <c r="V17" t="n">
         <v>338.1792688578644</v>
@@ -5555,7 +5555,7 @@
         <v>335.690812791769</v>
       </c>
       <c r="X17" t="n">
-        <v>311.0950330196743</v>
+        <v>311.0950330196744</v>
       </c>
       <c r="Y17" t="n">
         <v>263.7690985771314</v>
@@ -5601,7 +5601,7 @@
         <v>6.763585377157288</v>
       </c>
       <c r="M18" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173090004</v>
       </c>
       <c r="N18" t="n">
         <v>170.7805307732215</v>
@@ -5613,28 +5613,28 @@
         <v>338.1792688578644</v>
       </c>
       <c r="Q18" t="n">
-        <v>332.0807493390705</v>
+        <v>338.1792688578644</v>
       </c>
       <c r="R18" t="n">
-        <v>246.681944071933</v>
+        <v>252.7804635907269</v>
       </c>
       <c r="S18" t="n">
-        <v>246.681944071933</v>
+        <v>167.3816583235894</v>
       </c>
       <c r="T18" t="n">
-        <v>177.5611959114322</v>
+        <v>167.3816583235894</v>
       </c>
       <c r="U18" t="n">
-        <v>92.16239064429476</v>
+        <v>167.3816583235894</v>
       </c>
       <c r="V18" t="n">
-        <v>6.763585377157288</v>
+        <v>81.98285305645194</v>
       </c>
       <c r="W18" t="n">
-        <v>6.763585377157288</v>
+        <v>81.98285305645194</v>
       </c>
       <c r="X18" t="n">
-        <v>6.763585377157288</v>
+        <v>81.98285305645194</v>
       </c>
       <c r="Y18" t="n">
         <v>6.763585377157288</v>
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>224.7243025594537</v>
+        <v>224.7243025594536</v>
       </c>
       <c r="C20" t="n">
-        <v>209.8024792656695</v>
+        <v>209.8024792656693</v>
       </c>
       <c r="D20" t="n">
-        <v>207.4395829809272</v>
+        <v>207.4395829809271</v>
       </c>
       <c r="E20" t="n">
-        <v>171.0294620301153</v>
+        <v>171.0294620301152</v>
       </c>
       <c r="F20" t="n">
-        <v>102.5785960506395</v>
+        <v>102.5785960506391</v>
       </c>
       <c r="G20" t="n">
-        <v>18.34314156973354</v>
+        <v>18.34314156973355</v>
       </c>
       <c r="H20" t="n">
         <v>6.763585377157288</v>
@@ -5756,25 +5756,25 @@
         <v>6.763585377157288</v>
       </c>
       <c r="L20" t="n">
-        <v>55.38741258664112</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M20" t="n">
-        <v>138.366748850196</v>
+        <v>138.3667488501958</v>
       </c>
       <c r="N20" t="n">
-        <v>218.2274762775304</v>
+        <v>215.8463415097256</v>
       </c>
       <c r="O20" t="n">
-        <v>254.4798998155429</v>
+        <v>299.545710552047</v>
       </c>
       <c r="P20" t="n">
-        <v>254.4798998155429</v>
+        <v>299.545710552047</v>
       </c>
       <c r="Q20" t="n">
-        <v>254.4798998155429</v>
+        <v>299.545710552047</v>
       </c>
       <c r="R20" t="n">
-        <v>254.4798998155429</v>
+        <v>299.545710552047</v>
       </c>
       <c r="S20" t="n">
         <v>338.1792688578644</v>
@@ -5789,13 +5789,13 @@
         <v>338.1792688578644</v>
       </c>
       <c r="W20" t="n">
-        <v>335.690812791769</v>
+        <v>335.6908127917686</v>
       </c>
       <c r="X20" t="n">
-        <v>311.0950330196744</v>
+        <v>311.0950330196742</v>
       </c>
       <c r="Y20" t="n">
-        <v>263.7690985771314</v>
+        <v>263.7690985771313</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.763585377157288</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="C21" t="n">
-        <v>6.763585377157288</v>
+        <v>92.16239064429476</v>
       </c>
       <c r="D21" t="n">
         <v>6.763585377157288</v>
@@ -5856,25 +5856,25 @@
         <v>332.0807493390705</v>
       </c>
       <c r="S21" t="n">
-        <v>246.681944071933</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="T21" t="n">
+        <v>262.9600011785697</v>
+      </c>
+      <c r="U21" t="n">
+        <v>262.9600011785697</v>
+      </c>
+      <c r="V21" t="n">
+        <v>262.9600011785697</v>
+      </c>
+      <c r="W21" t="n">
+        <v>262.9600011785697</v>
+      </c>
+      <c r="X21" t="n">
         <v>177.5611959114322</v>
       </c>
-      <c r="U21" t="n">
+      <c r="Y21" t="n">
         <v>92.16239064429476</v>
-      </c>
-      <c r="V21" t="n">
-        <v>92.16239064429476</v>
-      </c>
-      <c r="W21" t="n">
-        <v>6.763585377157288</v>
-      </c>
-      <c r="X21" t="n">
-        <v>6.763585377157288</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>6.763585377157288</v>
       </c>
     </row>
     <row r="22">
@@ -5978,7 +5978,7 @@
         <v>102.5785960506391</v>
       </c>
       <c r="G23" t="n">
-        <v>18.34314156973354</v>
+        <v>18.34314156973355</v>
       </c>
       <c r="H23" t="n">
         <v>6.763585377157288</v>
@@ -5990,25 +5990,25 @@
         <v>6.763585377157288</v>
       </c>
       <c r="K23" t="n">
-        <v>39.17736730018274</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="L23" t="n">
-        <v>87.80119450966657</v>
+        <v>55.38741258664102</v>
       </c>
       <c r="M23" t="n">
-        <v>170.7805307732215</v>
+        <v>138.3667488501958</v>
       </c>
       <c r="N23" t="n">
+        <v>215.8463415097256</v>
+      </c>
+      <c r="O23" t="n">
+        <v>252.098765047738</v>
+      </c>
+      <c r="P23" t="n">
         <v>254.4798998155429</v>
       </c>
-      <c r="O23" t="n">
-        <v>338.1792688578644</v>
-      </c>
-      <c r="P23" t="n">
-        <v>338.1792688578644</v>
-      </c>
       <c r="Q23" t="n">
-        <v>338.1792688578644</v>
+        <v>254.4798998155429</v>
       </c>
       <c r="R23" t="n">
         <v>338.1792688578644</v>
@@ -6075,7 +6075,7 @@
         <v>6.763585377157288</v>
       </c>
       <c r="M24" t="n">
-        <v>90.46295441947872</v>
+        <v>87.08116173090004</v>
       </c>
       <c r="N24" t="n">
         <v>170.7805307732215</v>
@@ -6087,28 +6087,28 @@
         <v>338.1792688578644</v>
       </c>
       <c r="Q24" t="n">
-        <v>338.1792688578644</v>
+        <v>332.0807493390705</v>
       </c>
       <c r="R24" t="n">
-        <v>252.7804635907269</v>
+        <v>246.681944071933</v>
       </c>
       <c r="S24" t="n">
-        <v>252.7804635907269</v>
+        <v>246.681944071933</v>
       </c>
       <c r="T24" t="n">
-        <v>167.3816583235894</v>
+        <v>246.681944071933</v>
       </c>
       <c r="U24" t="n">
-        <v>81.98285305645194</v>
+        <v>161.2831388047955</v>
       </c>
       <c r="V24" t="n">
-        <v>81.98285305645194</v>
+        <v>161.2831388047955</v>
       </c>
       <c r="W24" t="n">
-        <v>81.98285305645194</v>
+        <v>75.88433353765802</v>
       </c>
       <c r="X24" t="n">
-        <v>81.98285305645194</v>
+        <v>6.763585377157288</v>
       </c>
       <c r="Y24" t="n">
         <v>6.763585377157288</v>
@@ -6203,25 +6203,25 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2687840112825</v>
+        <v>886.2687840112824</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131127</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8342541488737</v>
+        <v>599.8342541488736</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5526318559704</v>
+        <v>407.5526318559705</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4864210616371</v>
+        <v>199.4864210616373</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07610855563348</v>
+        <v>64.07610855563377</v>
       </c>
       <c r="I26" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J26" t="n">
         <v>171.8183046963238</v>
@@ -6230,19 +6230,19 @@
         <v>377.4043607994714</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7402271432943</v>
+        <v>636.7402271432942</v>
       </c>
       <c r="M26" t="n">
-        <v>930.4316025411881</v>
+        <v>930.431602541188</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O26" t="n">
         <v>1465.587697007408</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.092768286575</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q26" t="n">
         <v>1786.29241320021</v>
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>127.2342598225788</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="C27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J27" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K27" t="n">
-        <v>75.10177976570381</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L27" t="n">
-        <v>193.8356208840665</v>
+        <v>193.8356208840663</v>
       </c>
       <c r="M27" t="n">
-        <v>377.1470773731671</v>
+        <v>377.1470773731669</v>
       </c>
       <c r="N27" t="n">
-        <v>583.7301322221514</v>
+        <v>583.730132222151</v>
       </c>
       <c r="O27" t="n">
-        <v>716.9661857729282</v>
+        <v>716.9661857729278</v>
       </c>
       <c r="P27" t="n">
-        <v>801.8233632992863</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="Q27" t="n">
-        <v>795.7248437804924</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R27" t="n">
-        <v>660.0529655459875</v>
+        <v>769.0377160805173</v>
       </c>
       <c r="S27" t="n">
-        <v>466.6491915911142</v>
+        <v>769.0377160805173</v>
       </c>
       <c r="T27" t="n">
-        <v>464.5237260003938</v>
+        <v>766.912250489797</v>
       </c>
       <c r="U27" t="n">
-        <v>224.8998464748543</v>
+        <v>742.2787180047014</v>
       </c>
       <c r="V27" t="n">
-        <v>196.8104754189322</v>
+        <v>499.1989999083356</v>
       </c>
       <c r="W27" t="n">
-        <v>142.4022531896672</v>
+        <v>229.8004306386269</v>
       </c>
       <c r="X27" t="n">
-        <v>137.8846058468074</v>
+        <v>225.2827832957671</v>
       </c>
       <c r="Y27" t="n">
-        <v>127.2342598225788</v>
+        <v>214.6324372715387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="C28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="L28" t="n">
-        <v>36.09658434460358</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="M28" t="n">
-        <v>36.09658434460358</v>
+        <v>75.59320118812045</v>
       </c>
       <c r="N28" t="n">
-        <v>107.7460002921861</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="O28" t="n">
-        <v>107.7460002921861</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="P28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="Q28" t="n">
-        <v>261.2184455169723</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7780407246701</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0483630772727</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0405152401896</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4588835527236</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8643667704907</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W28" t="n">
-        <v>49.61157533685842</v>
+        <v>49.61157533685818</v>
       </c>
       <c r="X28" t="n">
-        <v>40.44085630837034</v>
+        <v>40.44085630837021</v>
       </c>
       <c r="Y28" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
     </row>
     <row r="29">
@@ -6440,37 +6440,37 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2687840112826</v>
+        <v>886.2687840112824</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131127</v>
       </c>
       <c r="E29" t="n">
         <v>599.8342541488736</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5526318559704</v>
+        <v>407.5526318559705</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4864210616372</v>
+        <v>199.4864210616373</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07610855563378</v>
+        <v>64.07610855563377</v>
       </c>
       <c r="I29" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J29" t="n">
         <v>171.8183046963238</v>
       </c>
       <c r="K29" t="n">
-        <v>377.4043607994715</v>
+        <v>377.4043607994714</v>
       </c>
       <c r="L29" t="n">
-        <v>636.7402271432944</v>
+        <v>636.7402271432942</v>
       </c>
       <c r="M29" t="n">
-        <v>930.4316025411883</v>
+        <v>930.431602541188</v>
       </c>
       <c r="N29" t="n">
         <v>1218.623234335057</v>
@@ -6488,10 +6488,10 @@
         <v>1804.829217230179</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U29" t="n">
         <v>1742.930001674768</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.09658434460358</v>
+        <v>225.5088586116399</v>
       </c>
       <c r="C30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J30" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K30" t="n">
-        <v>75.10177976570381</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L30" t="n">
-        <v>193.8356208840665</v>
+        <v>193.8356208840663</v>
       </c>
       <c r="M30" t="n">
-        <v>377.1470773731671</v>
+        <v>377.1470773731669</v>
       </c>
       <c r="N30" t="n">
-        <v>583.7301322221514</v>
+        <v>583.730132222151</v>
       </c>
       <c r="O30" t="n">
-        <v>716.9661857729282</v>
+        <v>716.9661857729278</v>
       </c>
       <c r="P30" t="n">
-        <v>801.8233632992863</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="Q30" t="n">
-        <v>795.7248437804924</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R30" t="n">
-        <v>660.0529655459875</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="S30" t="n">
-        <v>466.6491915911142</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="T30" t="n">
-        <v>464.5237260003939</v>
+        <v>793.5993781897715</v>
       </c>
       <c r="U30" t="n">
-        <v>224.8998464748544</v>
+        <v>768.965845704676</v>
       </c>
       <c r="V30" t="n">
-        <v>196.8104754189324</v>
+        <v>525.8861276083101</v>
       </c>
       <c r="W30" t="n">
-        <v>142.4022531896675</v>
+        <v>256.4875583386014</v>
       </c>
       <c r="X30" t="n">
-        <v>46.74693036883207</v>
+        <v>251.9699109957416</v>
       </c>
       <c r="Y30" t="n">
-        <v>36.09658434460358</v>
+        <v>241.3195649715132</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="C31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="L31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="M31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="N31" t="n">
-        <v>185.5578703684207</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="O31" t="n">
-        <v>185.5578703684207</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="P31" t="n">
-        <v>185.5578703684207</v>
+        <v>189.5690295693899</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246693</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772721</v>
       </c>
       <c r="T31" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401891</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527232</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704904</v>
       </c>
       <c r="W31" t="n">
-        <v>49.61157533685825</v>
+        <v>49.61157533685818</v>
       </c>
       <c r="X31" t="n">
-        <v>40.44085630837026</v>
+        <v>40.44085630837021</v>
       </c>
       <c r="Y31" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
     </row>
     <row r="32">
@@ -6677,46 +6677,46 @@
         <v>1025.021363618494</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2687840112827</v>
+        <v>886.2687840112825</v>
       </c>
       <c r="D32" t="n">
-        <v>760.0751314131128</v>
+        <v>760.0751314131129</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8342541488736</v>
+        <v>599.8342541488737</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5526318559705</v>
+        <v>407.55263185597</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4864210616373</v>
+        <v>199.4864210616368</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07610855563377</v>
+        <v>64.07610855563325</v>
       </c>
       <c r="I32" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8183046963238</v>
+        <v>171.8183046963237</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4043607994715</v>
+        <v>377.4043607994713</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7402271432937</v>
+        <v>636.7402271432941</v>
       </c>
       <c r="M32" t="n">
-        <v>930.4316025411877</v>
+        <v>930.4316025411878</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.623234335057</v>
+        <v>1218.623234335056</v>
       </c>
       <c r="O32" t="n">
         <v>1465.587697007408</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.092768286575</v>
+        <v>1663.092768286574</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.29241320021</v>
@@ -6725,10 +6725,10 @@
         <v>1804.829217230179</v>
       </c>
       <c r="S32" t="n">
-        <v>1790.284789810545</v>
+        <v>1790.284789810544</v>
       </c>
       <c r="T32" t="n">
-        <v>1780.615984973873</v>
+        <v>1780.615984973872</v>
       </c>
       <c r="U32" t="n">
         <v>1742.930001674768</v>
@@ -6737,10 +6737,10 @@
         <v>1633.799355170614</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.480142791092</v>
+        <v>1507.480142791091</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.05360670557</v>
+        <v>1359.053606705569</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.896915949599</v>
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>225.5088586116399</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="C33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J33" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K33" t="n">
-        <v>75.10177976570381</v>
+        <v>75.10177976570372</v>
       </c>
       <c r="L33" t="n">
-        <v>193.8356208840665</v>
+        <v>193.8356208840663</v>
       </c>
       <c r="M33" t="n">
-        <v>377.1470773731671</v>
+        <v>377.1470773731669</v>
       </c>
       <c r="N33" t="n">
-        <v>583.7301322221514</v>
+        <v>583.730132222151</v>
       </c>
       <c r="O33" t="n">
-        <v>716.9661857729282</v>
+        <v>716.9661857729278</v>
       </c>
       <c r="P33" t="n">
-        <v>801.8233632992863</v>
+        <v>801.8233632992858</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.7248437804924</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="R33" t="n">
-        <v>660.0529655459875</v>
+        <v>795.7248437804918</v>
       </c>
       <c r="S33" t="n">
-        <v>466.6491915911142</v>
+        <v>602.3210698256186</v>
       </c>
       <c r="T33" t="n">
-        <v>464.5237260003939</v>
+        <v>588.3763975628622</v>
       </c>
       <c r="U33" t="n">
-        <v>439.8901935152983</v>
+        <v>348.7525180373227</v>
       </c>
       <c r="V33" t="n">
-        <v>295.085074207993</v>
+        <v>320.6631469814006</v>
       </c>
       <c r="W33" t="n">
-        <v>240.6768519787282</v>
+        <v>51.26457771169191</v>
       </c>
       <c r="X33" t="n">
-        <v>236.1592046358684</v>
+        <v>46.74693036883209</v>
       </c>
       <c r="Y33" t="n">
-        <v>225.5088586116399</v>
+        <v>36.09658434460357</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="C34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="D34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="E34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="F34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="G34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="H34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="I34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="J34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="K34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="L34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="M34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
       <c r="N34" t="n">
-        <v>117.3055954998832</v>
+        <v>96.40552992324004</v>
       </c>
       <c r="O34" t="n">
-        <v>117.3055954998832</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="P34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="Q34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7780407246696</v>
+        <v>270.7780407246697</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0483630772723</v>
+        <v>248.0483630772724</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0405152401892</v>
+        <v>237.0405152401893</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4588835527233</v>
+        <v>160.4588835527234</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8643667704905</v>
+        <v>127.8643667704906</v>
       </c>
       <c r="W34" t="n">
-        <v>49.61157533685825</v>
+        <v>49.61157533685829</v>
       </c>
       <c r="X34" t="n">
-        <v>40.44085630837026</v>
+        <v>40.44085630837027</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.09658434460358</v>
+        <v>36.09658434460357</v>
       </c>
     </row>
     <row r="35">
@@ -6917,55 +6917,55 @@
         <v>737.7194519151712</v>
       </c>
       <c r="D35" t="n">
-        <v>635.1567571034932</v>
+        <v>635.156757103494</v>
       </c>
       <c r="E35" t="n">
-        <v>498.5468376257463</v>
+        <v>498.5468376257472</v>
       </c>
       <c r="F35" t="n">
-        <v>329.8961731193355</v>
+        <v>329.8961731193365</v>
       </c>
       <c r="G35" t="n">
-        <v>145.4609201114945</v>
+        <v>145.4609201114956</v>
       </c>
       <c r="H35" t="n">
-        <v>33.68156539198423</v>
+        <v>33.68156539198414</v>
       </c>
       <c r="I35" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J35" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K35" t="n">
-        <v>416.9621788753964</v>
+        <v>258.0797567971351</v>
       </c>
       <c r="L35" t="n">
-        <v>699.4587469457604</v>
+        <v>306.7035840066188</v>
       </c>
       <c r="M35" t="n">
-        <v>782.4380832093152</v>
+        <v>518.1463308071272</v>
       </c>
       <c r="N35" t="n">
-        <v>859.9176758688451</v>
+        <v>829.4986643275372</v>
       </c>
       <c r="O35" t="n">
-        <v>1130.042840267738</v>
+        <v>1099.62382872643</v>
       </c>
       <c r="P35" t="n">
-        <v>1350.708613273446</v>
+        <v>1320.289601732137</v>
       </c>
       <c r="Q35" t="n">
-        <v>1402.362428097128</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="R35" t="n">
-        <v>1444.059933853639</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="S35" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="T35" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372314</v>
       </c>
       <c r="U35" t="n">
         <v>1452.594922859703</v>
@@ -6974,13 +6974,13 @@
         <v>1367.095234142041</v>
       </c>
       <c r="W35" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X35" t="n">
         <v>1139.611401249981</v>
       </c>
       <c r="Y35" t="n">
-        <v>992.0856682805033</v>
+        <v>992.0856682805032</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>29.3329989674463</v>
+        <v>245.1115008762159</v>
       </c>
       <c r="C36" t="n">
-        <v>29.3329989674463</v>
+        <v>55.69922660917965</v>
       </c>
       <c r="D36" t="n">
-        <v>29.3329989674463</v>
+        <v>55.69922660917965</v>
       </c>
       <c r="E36" t="n">
-        <v>29.3329989674463</v>
+        <v>55.69922660917965</v>
       </c>
       <c r="F36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K36" t="n">
-        <v>68.33819438854653</v>
+        <v>68.33819438854644</v>
       </c>
       <c r="L36" t="n">
-        <v>187.0720355069092</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M36" t="n">
-        <v>370.3834919960099</v>
+        <v>370.3834919960096</v>
       </c>
       <c r="N36" t="n">
-        <v>576.9665468449941</v>
+        <v>576.9665468449938</v>
       </c>
       <c r="O36" t="n">
-        <v>710.202600395771</v>
+        <v>710.2026003957706</v>
       </c>
       <c r="P36" t="n">
-        <v>795.0597779221291</v>
+        <v>795.0597779221285</v>
       </c>
       <c r="Q36" t="n">
-        <v>788.9612584033353</v>
+        <v>788.9612584033346</v>
       </c>
       <c r="R36" t="n">
-        <v>653.2893801688303</v>
+        <v>653.2893801688297</v>
       </c>
       <c r="S36" t="n">
-        <v>521.3083688363524</v>
+        <v>459.8856062139564</v>
       </c>
       <c r="T36" t="n">
-        <v>304.1925562051882</v>
+        <v>459.8856062139564</v>
       </c>
       <c r="U36" t="n">
-        <v>64.56867667964868</v>
+        <v>458.8830315153531</v>
       </c>
       <c r="V36" t="n">
-        <v>60.11026341021888</v>
+        <v>454.4246182459235</v>
       </c>
       <c r="W36" t="n">
-        <v>29.3329989674463</v>
+        <v>423.647353803151</v>
       </c>
       <c r="X36" t="n">
-        <v>29.3329989674463</v>
+        <v>423.647353803151</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.3329989674463</v>
+        <v>423.647353803151</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="C37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="D37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="E37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="F37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="G37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="H37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="I37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="J37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="K37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="L37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="M37" t="n">
-        <v>29.3329989674463</v>
+        <v>113.1487685770611</v>
       </c>
       <c r="N37" t="n">
-        <v>29.3329989674463</v>
+        <v>113.1487685770611</v>
       </c>
       <c r="O37" t="n">
-        <v>112.2654239127346</v>
+        <v>113.1487685770611</v>
       </c>
       <c r="P37" t="n">
-        <v>112.2654239127346</v>
+        <v>113.1487685770611</v>
       </c>
       <c r="Q37" t="n">
-        <v>112.2654239127346</v>
+        <v>113.1487685770611</v>
       </c>
       <c r="R37" t="n">
-        <v>144.9857208469735</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="S37" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="T37" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="U37" t="n">
-        <v>92.91839161032685</v>
+        <v>92.91839161032661</v>
       </c>
       <c r="V37" t="n">
-        <v>83.95483261458628</v>
+        <v>83.95483261458615</v>
       </c>
       <c r="W37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="X37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744628</v>
       </c>
     </row>
     <row r="38">
@@ -7148,61 +7148,61 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>852.8410737358903</v>
+        <v>852.8410737358896</v>
       </c>
       <c r="C38" t="n">
-        <v>737.7194519151711</v>
+        <v>737.7194519151705</v>
       </c>
       <c r="D38" t="n">
-        <v>635.1567571034939</v>
+        <v>635.1567571034931</v>
       </c>
       <c r="E38" t="n">
-        <v>498.546837625747</v>
+        <v>498.5468376257463</v>
       </c>
       <c r="F38" t="n">
-        <v>329.8961731193363</v>
+        <v>329.8961731193356</v>
       </c>
       <c r="G38" t="n">
-        <v>145.4609201114954</v>
+        <v>145.4609201114947</v>
       </c>
       <c r="H38" t="n">
-        <v>33.68156539198414</v>
+        <v>33.68156539198412</v>
       </c>
       <c r="I38" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2154210457077</v>
+        <v>188.2154210457076</v>
       </c>
       <c r="K38" t="n">
-        <v>188.2154210457077</v>
+        <v>243.6489612507551</v>
       </c>
       <c r="L38" t="n">
-        <v>470.7119891160717</v>
+        <v>526.1455293211191</v>
       </c>
       <c r="M38" t="n">
-        <v>787.5640662405067</v>
+        <v>842.9976064455541</v>
       </c>
       <c r="N38" t="n">
-        <v>1021.673899431908</v>
+        <v>1154.349939965964</v>
       </c>
       <c r="O38" t="n">
-        <v>1057.92632296992</v>
+        <v>1190.602363503976</v>
       </c>
       <c r="P38" t="n">
-        <v>1278.592095975628</v>
+        <v>1411.268136509684</v>
       </c>
       <c r="Q38" t="n">
-        <v>1424.952442615805</v>
+        <v>1411.268136509684</v>
       </c>
       <c r="R38" t="n">
-        <v>1466.649948372315</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="S38" t="n">
-        <v>1466.649948372315</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="T38" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U38" t="n">
         <v>1452.594922859702</v>
@@ -7214,10 +7214,10 @@
         <v>1264.40697954901</v>
       </c>
       <c r="X38" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y38" t="n">
-        <v>992.0856682805029</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K39" t="n">
-        <v>68.33819438854653</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L39" t="n">
-        <v>187.0720355069092</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M39" t="n">
-        <v>370.3834919960099</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N39" t="n">
-        <v>576.9665468449941</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O39" t="n">
-        <v>710.202600395771</v>
+        <v>710.2026003957704</v>
       </c>
       <c r="P39" t="n">
-        <v>795.0597779221291</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="Q39" t="n">
-        <v>795.0597779221291</v>
+        <v>788.9612584033345</v>
       </c>
       <c r="R39" t="n">
-        <v>759.9296736632884</v>
+        <v>653.2893801688296</v>
       </c>
       <c r="S39" t="n">
-        <v>759.9296736632884</v>
+        <v>459.8856062139563</v>
       </c>
       <c r="T39" t="n">
-        <v>542.8138610321242</v>
+        <v>459.8856062139563</v>
       </c>
       <c r="U39" t="n">
-        <v>303.1899815065847</v>
+        <v>458.883031515353</v>
       </c>
       <c r="V39" t="n">
-        <v>298.731568237155</v>
+        <v>454.4246182459233</v>
       </c>
       <c r="W39" t="n">
-        <v>29.3329989674463</v>
+        <v>248.8409933507499</v>
       </c>
       <c r="X39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="L40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="M40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="N40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="O40" t="n">
-        <v>99.89351385131813</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="P40" t="n">
-        <v>99.89351385131813</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="Q40" t="n">
-        <v>99.89351385131813</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="R40" t="n">
-        <v>132.6138107855571</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="S40" t="n">
-        <v>133.4971554498842</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="T40" t="n">
-        <v>145.8690655113002</v>
+        <v>145.8690655113001</v>
       </c>
       <c r="U40" t="n">
-        <v>92.91839161032668</v>
+        <v>92.91839161032659</v>
       </c>
       <c r="V40" t="n">
-        <v>83.95483261458619</v>
+        <v>83.95483261458614</v>
       </c>
       <c r="W40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>852.841073735891</v>
+        <v>852.8410737358897</v>
       </c>
       <c r="C41" t="n">
-        <v>737.7194519151717</v>
+        <v>737.7194519151706</v>
       </c>
       <c r="D41" t="n">
-        <v>635.1567571034942</v>
+        <v>635.1567571034934</v>
       </c>
       <c r="E41" t="n">
-        <v>498.5468376257473</v>
+        <v>498.5468376257467</v>
       </c>
       <c r="F41" t="n">
-        <v>329.8961731193365</v>
+        <v>329.896173119336</v>
       </c>
       <c r="G41" t="n">
-        <v>145.4609201114955</v>
+        <v>145.4609201114952</v>
       </c>
       <c r="H41" t="n">
-        <v>33.68156539198424</v>
+        <v>33.68156539198406</v>
       </c>
       <c r="I41" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J41" t="n">
-        <v>188.2154210457076</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K41" t="n">
-        <v>322.255647058903</v>
+        <v>258.0797567971351</v>
       </c>
       <c r="L41" t="n">
-        <v>370.8794742683869</v>
+        <v>540.5763248674991</v>
       </c>
       <c r="M41" t="n">
-        <v>687.7315513928219</v>
+        <v>857.4284019919342</v>
       </c>
       <c r="N41" t="n">
-        <v>999.0838849132318</v>
+        <v>1132.237263698234</v>
       </c>
       <c r="O41" t="n">
-        <v>1035.336308451244</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="P41" t="n">
-        <v>1256.002081456952</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="Q41" t="n">
-        <v>1402.362428097128</v>
+        <v>1402.362428097127</v>
       </c>
       <c r="R41" t="n">
-        <v>1444.059933853639</v>
+        <v>1444.059933853637</v>
       </c>
       <c r="S41" t="n">
-        <v>1452.965642266196</v>
+        <v>1452.965642266194</v>
       </c>
       <c r="T41" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U41" t="n">
-        <v>1452.594922859704</v>
+        <v>1452.594922859701</v>
       </c>
       <c r="V41" t="n">
-        <v>1367.095234142042</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W41" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X41" t="n">
-        <v>1139.611401249982</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y41" t="n">
-        <v>992.0856682805037</v>
+        <v>992.0856682805022</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K42" t="n">
-        <v>68.33819438854653</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L42" t="n">
-        <v>187.0720355069092</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M42" t="n">
-        <v>370.3834919960099</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N42" t="n">
-        <v>576.9665468449941</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O42" t="n">
-        <v>710.202600395771</v>
+        <v>710.2026003957704</v>
       </c>
       <c r="P42" t="n">
-        <v>795.0597779221291</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="Q42" t="n">
-        <v>788.9612584033353</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="R42" t="n">
-        <v>788.9612584033353</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="S42" t="n">
-        <v>788.9612584033353</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="T42" t="n">
-        <v>788.9612584033353</v>
+        <v>577.9439652909642</v>
       </c>
       <c r="U42" t="n">
-        <v>549.3373788777958</v>
+        <v>338.3200857654248</v>
       </c>
       <c r="V42" t="n">
-        <v>544.878965608366</v>
+        <v>95.24036766905886</v>
       </c>
       <c r="W42" t="n">
-        <v>427.376846277685</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X42" t="n">
-        <v>207.8688518943814</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y42" t="n">
-        <v>207.8688518943814</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="L43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="M43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="N43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="O43" t="n">
-        <v>145.8690655113005</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="P43" t="n">
-        <v>145.8690655113005</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Q43" t="n">
-        <v>145.8690655113005</v>
+        <v>137.7138710502363</v>
       </c>
       <c r="R43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113</v>
       </c>
       <c r="S43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113</v>
       </c>
       <c r="T43" t="n">
-        <v>145.8690655113005</v>
+        <v>145.8690655113</v>
       </c>
       <c r="U43" t="n">
-        <v>92.91839161032685</v>
+        <v>92.91839161032648</v>
       </c>
       <c r="V43" t="n">
-        <v>83.95483261458628</v>
+        <v>83.95483261458608</v>
       </c>
       <c r="W43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>852.8410737358901</v>
+        <v>852.8410737358894</v>
       </c>
       <c r="C44" t="n">
-        <v>737.7194519151708</v>
+        <v>737.7194519151701</v>
       </c>
       <c r="D44" t="n">
-        <v>635.1567571034936</v>
+        <v>635.1567571034932</v>
       </c>
       <c r="E44" t="n">
-        <v>498.5468376257467</v>
+        <v>498.5468376257463</v>
       </c>
       <c r="F44" t="n">
-        <v>329.8961731193358</v>
+        <v>329.8961731193356</v>
       </c>
       <c r="G44" t="n">
-        <v>145.4609201114956</v>
+        <v>145.4609201114953</v>
       </c>
       <c r="H44" t="n">
-        <v>33.6815653919843</v>
+        <v>33.68156539198415</v>
       </c>
       <c r="I44" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J44" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K44" t="n">
         <v>258.079756797135</v>
       </c>
       <c r="L44" t="n">
-        <v>540.5763248674989</v>
+        <v>338.7488919103108</v>
       </c>
       <c r="M44" t="n">
-        <v>687.7315513928223</v>
+        <v>655.6009690347457</v>
       </c>
       <c r="N44" t="n">
-        <v>765.2111440523522</v>
+        <v>966.9533025551557</v>
       </c>
       <c r="O44" t="n">
-        <v>1035.336308451245</v>
+        <v>1237.078466954048</v>
       </c>
       <c r="P44" t="n">
-        <v>1256.002081456953</v>
+        <v>1457.744239959756</v>
       </c>
       <c r="Q44" t="n">
-        <v>1402.362428097129</v>
+        <v>1457.744239959756</v>
       </c>
       <c r="R44" t="n">
-        <v>1444.059933853639</v>
+        <v>1457.744239959756</v>
       </c>
       <c r="S44" t="n">
-        <v>1452.965642266196</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.649948372315</v>
+        <v>1466.649948372313</v>
       </c>
       <c r="U44" t="n">
-        <v>1452.594922859703</v>
+        <v>1452.594922859702</v>
       </c>
       <c r="V44" t="n">
-        <v>1367.095234142041</v>
+        <v>1367.09523414204</v>
       </c>
       <c r="W44" t="n">
-        <v>1264.406979549011</v>
+        <v>1264.40697954901</v>
       </c>
       <c r="X44" t="n">
-        <v>1139.611401249981</v>
+        <v>1139.61140124998</v>
       </c>
       <c r="Y44" t="n">
-        <v>992.0856682805029</v>
+        <v>992.085668280502</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K45" t="n">
-        <v>68.33819438854653</v>
+        <v>68.33819438854643</v>
       </c>
       <c r="L45" t="n">
-        <v>187.0720355069092</v>
+        <v>187.072035506909</v>
       </c>
       <c r="M45" t="n">
-        <v>370.3834919960099</v>
+        <v>370.3834919960095</v>
       </c>
       <c r="N45" t="n">
-        <v>576.9665468449941</v>
+        <v>576.9665468449937</v>
       </c>
       <c r="O45" t="n">
-        <v>710.202600395771</v>
+        <v>710.2026003957704</v>
       </c>
       <c r="P45" t="n">
-        <v>795.0597779221291</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="Q45" t="n">
-        <v>795.0597779221291</v>
+        <v>795.0597779221284</v>
       </c>
       <c r="R45" t="n">
-        <v>795.0597779221291</v>
+        <v>659.3878996876235</v>
       </c>
       <c r="S45" t="n">
-        <v>795.0597779221291</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="T45" t="n">
-        <v>577.9439652909649</v>
+        <v>542.8138610321242</v>
       </c>
       <c r="U45" t="n">
-        <v>338.3200857654255</v>
+        <v>541.8112863335209</v>
       </c>
       <c r="V45" t="n">
-        <v>279.6182577935226</v>
+        <v>298.7315682371549</v>
       </c>
       <c r="W45" t="n">
-        <v>248.8409933507499</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y45" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="D46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="F46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="G46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="H46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="I46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="J46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="K46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="L46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="M46" t="n">
-        <v>99.89351385131897</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="N46" t="n">
-        <v>99.89351385131897</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="O46" t="n">
-        <v>99.89351385131897</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="P46" t="n">
-        <v>99.89351385131897</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Q46" t="n">
-        <v>99.89351385131897</v>
+        <v>137.7138710502362</v>
       </c>
       <c r="R46" t="n">
-        <v>132.6138107855579</v>
+        <v>137.7138710502362</v>
       </c>
       <c r="S46" t="n">
-        <v>133.4971554498848</v>
+        <v>137.7138710502362</v>
       </c>
       <c r="T46" t="n">
-        <v>145.8690655113007</v>
+        <v>145.8690655113002</v>
       </c>
       <c r="U46" t="n">
-        <v>92.91839161032696</v>
+        <v>92.91839161032665</v>
       </c>
       <c r="V46" t="n">
-        <v>83.95483261458634</v>
+        <v>83.95483261458617</v>
       </c>
       <c r="W46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="X46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
       <c r="Y46" t="n">
-        <v>29.3329989674463</v>
+        <v>29.33299896744627</v>
       </c>
     </row>
   </sheetData>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9742862901103</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3713709098106</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M12" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N12" t="n">
-        <v>183.0729712056919</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O12" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P12" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9742862901103</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L15" t="n">
-        <v>120.3713709098106</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M15" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N15" t="n">
-        <v>186.4889234163774</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O15" t="n">
-        <v>201.7697756215894</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P15" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9243,22 +9243,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>131.9742862901103</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L18" t="n">
-        <v>120.3713709098106</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M18" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N18" t="n">
-        <v>183.0729712056919</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O18" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P18" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9742862901103</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3713709098106</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M21" t="n">
-        <v>197.7426589510526</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N21" t="n">
-        <v>186.4889234163774</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O21" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P21" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,22 +9717,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>131.9742862901103</v>
+        <v>131.9742862901104</v>
       </c>
       <c r="L24" t="n">
-        <v>120.3713709098106</v>
+        <v>120.3713709098107</v>
       </c>
       <c r="M24" t="n">
-        <v>201.1586111617382</v>
+        <v>197.7426589510527</v>
       </c>
       <c r="N24" t="n">
-        <v>183.0729712056919</v>
+        <v>186.4889234163775</v>
       </c>
       <c r="O24" t="n">
-        <v>205.1857278322749</v>
+        <v>205.185727832275</v>
       </c>
       <c r="P24" t="n">
-        <v>205.1943705594503</v>
+        <v>205.1943705594504</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.8598661789769</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0940556550143</v>
+        <v>146.0940556550142</v>
       </c>
       <c r="D11" t="n">
-        <v>133.6607179160628</v>
+        <v>133.6607179160627</v>
       </c>
       <c r="E11" t="n">
         <v>167.3674703354716</v>
       </c>
       <c r="F11" t="n">
-        <v>199.087807913849</v>
+        <v>199.0878079138489</v>
       </c>
       <c r="G11" t="n">
-        <v>214.7145505302648</v>
+        <v>214.7145505302647</v>
       </c>
       <c r="H11" t="n">
-        <v>142.7852112248184</v>
+        <v>58.24039401035228</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>36.42873081279477</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>32.22352466852141</v>
+        <v>45.22367859750045</v>
       </c>
       <c r="W11" t="n">
-        <v>49.24020488513628</v>
+        <v>133.7850220996023</v>
       </c>
       <c r="X11" t="n">
         <v>155.6712725685416</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.1741256922854</v>
+        <v>178.1741256922853</v>
       </c>
     </row>
     <row r="12">
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.654448148704716</v>
+        <v>1.65444814870466</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>134.8598661789764</v>
+        <v>85.43098143720266</v>
       </c>
       <c r="C14" t="n">
         <v>146.0940556550142</v>
@@ -23507,10 +23507,10 @@
         <v>199.0878079138489</v>
       </c>
       <c r="G14" t="n">
-        <v>214.7145505302647</v>
+        <v>179.5986180575725</v>
       </c>
       <c r="H14" t="n">
-        <v>142.7852112248183</v>
+        <v>142.7852112248184</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23552,7 +23552,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>32.22352466852135</v>
+        <v>116.7683418829874</v>
       </c>
       <c r="W14" t="n">
         <v>49.24020488513622</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272248.0407556372</v>
+        <v>272248.0407556371</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>105057.1604753343</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161150.2341536786</v>
+        <v>161150.2341536787</v>
       </c>
       <c r="K3" t="n">
-        <v>5.5409215677243e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>105057.1604753343</v>
+        <v>105057.1604753342</v>
       </c>
       <c r="M3" t="n">
-        <v>18715.71856690187</v>
+        <v>18715.71856690198</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>65215.19438069706</v>
+        <v>65215.19438069731</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>488407.6697575154</v>
       </c>
       <c r="E4" t="n">
-        <v>382892.3279665351</v>
+        <v>382892.3279665352</v>
       </c>
       <c r="F4" t="n">
-        <v>382892.3279665351</v>
+        <v>382892.3279665352</v>
       </c>
       <c r="G4" t="n">
         <v>453420.5870809769</v>
       </c>
       <c r="H4" t="n">
-        <v>453420.5870809769</v>
+        <v>453420.587080977</v>
       </c>
       <c r="I4" t="n">
         <v>453420.5870809769</v>
       </c>
       <c r="J4" t="n">
-        <v>453902.5702029473</v>
+        <v>453902.5702029474</v>
       </c>
       <c r="K4" t="n">
-        <v>453902.5702029472</v>
+        <v>453902.5702029474</v>
       </c>
       <c r="L4" t="n">
-        <v>453902.5702029473</v>
+        <v>453902.5702029474</v>
       </c>
       <c r="M4" t="n">
+        <v>453523.1062128386</v>
+      </c>
+      <c r="N4" t="n">
         <v>453523.1062128384</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>453523.1062128385</v>
       </c>
-      <c r="O4" t="n">
-        <v>453523.1062128384</v>
-      </c>
       <c r="P4" t="n">
-        <v>453523.1062128384</v>
+        <v>453523.1062128385</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24571.35877862007</v>
+        <v>24571.35877862008</v>
       </c>
       <c r="F5" t="n">
         <v>24571.35877862008</v>
@@ -26494,22 +26494,22 @@
         <v>47598.27644989197</v>
       </c>
       <c r="K5" t="n">
-        <v>47598.27644989198</v>
+        <v>47598.27644989197</v>
       </c>
       <c r="L5" t="n">
-        <v>47598.27644989198</v>
+        <v>47598.27644989196</v>
       </c>
       <c r="M5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350353</v>
       </c>
       <c r="N5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350351</v>
       </c>
       <c r="O5" t="n">
-        <v>44424.71624350354</v>
+        <v>44424.71624350351</v>
       </c>
       <c r="P5" t="n">
-        <v>44424.71624350353</v>
+        <v>44424.71624350351</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-522035.2697575153</v>
+        <v>-522039.7361417206</v>
       </c>
       <c r="C6" t="n">
-        <v>-522035.2697575153</v>
+        <v>-522039.7361417206</v>
       </c>
       <c r="D6" t="n">
-        <v>-522035.2697575153</v>
+        <v>-522039.7361417206</v>
       </c>
       <c r="E6" t="n">
-        <v>-679711.7275007924</v>
+        <v>-680021.0486503874</v>
       </c>
       <c r="F6" t="n">
-        <v>-407463.6867451553</v>
+        <v>-407773.0078947504</v>
       </c>
       <c r="G6" t="n">
         <v>-594089.1693649323</v>
       </c>
       <c r="H6" t="n">
-        <v>-489032.0088895981</v>
+        <v>-489032.0088895982</v>
       </c>
       <c r="I6" t="n">
         <v>-489032.0088895981</v>
       </c>
       <c r="J6" t="n">
-        <v>-662651.0808065179</v>
+        <v>-662651.080806518</v>
       </c>
       <c r="K6" t="n">
         <v>-501500.8466528393</v>
@@ -26552,13 +26552,13 @@
         <v>-606558.0071281736</v>
       </c>
       <c r="M6" t="n">
-        <v>-516663.5410232439</v>
+        <v>-516663.541023244</v>
       </c>
       <c r="N6" t="n">
-        <v>-497947.8224563421</v>
+        <v>-497947.8224563419</v>
       </c>
       <c r="O6" t="n">
-        <v>-563163.016837039</v>
+        <v>-563163.0168370394</v>
       </c>
       <c r="P6" t="n">
         <v>-497947.8224563419</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
         <v>204.1114417261646</v>
@@ -26707,7 +26707,7 @@
         <v>335.4328923203324</v>
       </c>
       <c r="J2" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K2" t="n">
         <v>212.8404435700394</v>
@@ -26716,16 +26716,16 @@
         <v>212.8404435700394</v>
       </c>
       <c r="M2" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="N2" t="n">
+        <v>236.2350917786669</v>
+      </c>
+      <c r="O2" t="n">
+        <v>236.2350917786669</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2350917786668</v>
-      </c>
-      <c r="O2" t="n">
-        <v>236.2350917786667</v>
-      </c>
-      <c r="P2" t="n">
-        <v>236.2350917786667</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="F3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="G3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="H3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="I3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="J3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="K3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="L3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="M3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="N3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="O3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="P3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>84.54481721446609</v>
       </c>
       <c r="J4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075446</v>
       </c>
       <c r="K4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075446</v>
       </c>
       <c r="L4" t="n">
-        <v>451.2073043075448</v>
+        <v>451.2073043075446</v>
       </c>
       <c r="M4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="N4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930783</v>
       </c>
       <c r="O4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930783</v>
       </c>
       <c r="P4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930783</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>131.3214505941679</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.51899297587141</v>
+        <v>81.51899297587158</v>
       </c>
       <c r="K2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>131.3214505941679</v>
+        <v>131.3214505941678</v>
       </c>
       <c r="M2" t="n">
-        <v>23.39464820862733</v>
+        <v>23.39464820862747</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587133</v>
+        <v>81.51899297587164</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>104.2013347478721</v>
+        <v>104.2013347478719</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.6624870930787</v>
+        <v>366.6624870930785</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>131.3214505941679</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.51899297587141</v>
+        <v>81.51899297587158</v>
       </c>
       <c r="P2" t="n">
-        <v>6.926151959655375e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="C11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="D11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="E11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="F11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="G11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="H11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="J11" t="n">
-        <v>75.74779675011996</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K11" t="n">
-        <v>5.177760637566998</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L11" t="n">
-        <v>35.42984023518949</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7273058371379051</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>6.282602406860107</v>
+        <v>2.405186634146389</v>
       </c>
       <c r="O11" t="n">
-        <v>34.51521273858329</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.34037157088117</v>
+        <v>97.88518878534737</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.39635779869045</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R11" t="n">
-        <v>204.1114417261645</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J12" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R12" t="n">
-        <v>134.3151594521598</v>
+        <v>49.77034223769371</v>
       </c>
       <c r="S12" t="n">
-        <v>191.4697362153245</v>
+        <v>145.419052091569</v>
       </c>
       <c r="T12" t="n">
-        <v>130.3998372903865</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U12" t="n">
-        <v>152.682823515818</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V12" t="n">
-        <v>176.7044876704487</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W12" t="n">
-        <v>204.1114417261645</v>
+        <v>182.1597663625455</v>
       </c>
       <c r="X12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y12" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="13">
@@ -28269,52 +28269,52 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J13" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K13" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L13" t="n">
-        <v>115.8843086546053</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36038278515805</v>
+        <v>108.9051999996242</v>
       </c>
       <c r="N13" t="n">
         <v>100.2288572122339</v>
       </c>
       <c r="O13" t="n">
-        <v>36.70659427566591</v>
+        <v>87.04541416847729</v>
       </c>
       <c r="P13" t="n">
-        <v>108.1565915186225</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="R13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="S13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="T13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="U13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="V13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="W13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="X13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y13" t="n">
-        <v>204.1114417261645</v>
+        <v>204.1114417261646</v>
       </c>
     </row>
     <row r="14">
@@ -28348,31 +28348,31 @@
         <v>204.1114417261646</v>
       </c>
       <c r="J14" t="n">
-        <v>75.74779675011996</v>
+        <v>160.2926139645861</v>
       </c>
       <c r="K14" t="n">
-        <v>33.47920843808981</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.7273058371379051</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>47.92620758010999</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.34037157088117</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.39635779869045</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R14" t="n">
-        <v>204.1114417261646</v>
+        <v>196.5215857294698</v>
       </c>
       <c r="S14" t="n">
         <v>204.1114417261646</v>
@@ -28427,7 +28427,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J15" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28454,22 +28454,22 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S15" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008584</v>
       </c>
       <c r="T15" t="n">
-        <v>130.3998372903865</v>
+        <v>190.1539545876243</v>
       </c>
       <c r="U15" t="n">
         <v>204.1114417261646</v>
       </c>
       <c r="V15" t="n">
+        <v>156.1041037009362</v>
+      </c>
+      <c r="W15" t="n">
         <v>204.1114417261646</v>
       </c>
-      <c r="W15" t="n">
-        <v>182.1597663625455</v>
-      </c>
       <c r="X15" t="n">
-        <v>153.265079147327</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="Y15" t="n">
         <v>204.1114417261646</v>
@@ -28500,31 +28500,31 @@
         <v>168.6953110816783</v>
       </c>
       <c r="H16" t="n">
-        <v>165.7758191012691</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="I16" t="n">
         <v>164.6886553331604</v>
       </c>
       <c r="J16" t="n">
-        <v>119.853313707886</v>
+        <v>204.1114417261646</v>
       </c>
       <c r="K16" t="n">
-        <v>150.939997852204</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L16" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M16" t="n">
-        <v>108.9051999996241</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N16" t="n">
-        <v>58.83002099006526</v>
+        <v>100.2288572122339</v>
       </c>
       <c r="O16" t="n">
-        <v>121.251411490132</v>
+        <v>41.80364183925548</v>
       </c>
       <c r="P16" t="n">
-        <v>57.81777162581079</v>
+        <v>142.3625888402769</v>
       </c>
       <c r="Q16" t="n">
         <v>126.7594634122123</v>
@@ -28585,10 +28585,10 @@
         <v>240.5401725389593</v>
       </c>
       <c r="J17" t="n">
-        <v>75.74779675011996</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K17" t="n">
-        <v>5.177760637566998</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,25 +28603,25 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.34037157088117</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q17" t="n">
-        <v>88.39635779869045</v>
+        <v>160.7932529361226</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1163990953233</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S17" t="n">
-        <v>227.2394267154775</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T17" t="n">
-        <v>306.9573775728107</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U17" t="n">
         <v>250.1495670361522</v>
       </c>
       <c r="V17" t="n">
-        <v>323.2849702432979</v>
+        <v>335.4328923203324</v>
       </c>
       <c r="W17" t="n">
         <v>335.4328923203324</v>
@@ -28664,7 +28664,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J18" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,19 +28685,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R18" t="n">
-        <v>49.77034223769368</v>
+        <v>49.77034223769371</v>
       </c>
       <c r="S18" t="n">
-        <v>191.4697362153245</v>
+        <v>106.9249190008584</v>
       </c>
       <c r="T18" t="n">
-        <v>146.5151138259568</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U18" t="n">
-        <v>152.682823515818</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V18" t="n">
         <v>156.1041037009362</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>148.9172111315239</v>
       </c>
     </row>
     <row r="19">
@@ -28743,25 +28743,25 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J19" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K19" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L19" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N19" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O19" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P19" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q19" t="n">
         <v>126.7594634122123</v>
@@ -28822,10 +28822,10 @@
         <v>240.5401725389593</v>
       </c>
       <c r="J20" t="n">
-        <v>75.74779675011996</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K20" t="n">
-        <v>5.177760637566998</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28834,22 +28834,22 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2.405186634145892</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>47.92620758011012</v>
       </c>
       <c r="P20" t="n">
-        <v>13.34037157088117</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q20" t="n">
-        <v>88.39635779869045</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R20" t="n">
-        <v>194.1163990953233</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S20" t="n">
-        <v>311.7842439299436</v>
+        <v>266.26322298398</v>
       </c>
       <c r="T20" t="n">
         <v>222.4125603583446</v>
@@ -28883,7 +28883,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>74.62749786211245</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28901,7 +28901,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J21" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28928,25 +28928,25 @@
         <v>134.3151594521598</v>
       </c>
       <c r="S21" t="n">
-        <v>106.9249190008584</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T21" t="n">
         <v>146.5151138259568</v>
       </c>
       <c r="U21" t="n">
-        <v>152.682823515818</v>
+        <v>237.2276407302841</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>182.1597663625455</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>132.7680972250045</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>138.8394689195595</v>
       </c>
     </row>
     <row r="22">
@@ -28980,25 +28980,25 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J22" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K22" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L22" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N22" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O22" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P22" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q22" t="n">
         <v>126.7594634122123</v>
@@ -29059,10 +29059,10 @@
         <v>240.5401725389593</v>
       </c>
       <c r="J23" t="n">
-        <v>75.74779675011996</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K23" t="n">
-        <v>37.91895449920887</v>
+        <v>5.17776063756709</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29071,22 +29071,22 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6.282602406860107</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>47.92620758010999</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.34037157088117</v>
+        <v>15.74555820502767</v>
       </c>
       <c r="Q23" t="n">
-        <v>88.39635779869045</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1163990953233</v>
+        <v>278.6612163097894</v>
       </c>
       <c r="S23" t="n">
-        <v>227.2394267154775</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T23" t="n">
         <v>222.4125603583446</v>
@@ -29138,7 +29138,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J24" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,16 +29159,16 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.037534323605957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.77034223769368</v>
+        <v>49.77034223769371</v>
       </c>
       <c r="S24" t="n">
         <v>191.4697362153245</v>
       </c>
       <c r="T24" t="n">
-        <v>130.3998372903865</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U24" t="n">
         <v>152.682823515818</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>182.1597663625455</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>148.8833737605749</v>
       </c>
       <c r="Y24" t="n">
-        <v>148.9172111315239</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29217,25 +29217,25 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J25" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K25" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L25" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N25" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O25" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P25" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q25" t="n">
         <v>126.7594634122123</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="C26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="D26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="E26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="F26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="G26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="H26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="I26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="K26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="L26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="N26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.840443570039</v>
       </c>
       <c r="O26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="R26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="S26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="27">
@@ -29351,10 +29351,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>97.29185280117046</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
         <v>159.1723150765785</v>
@@ -29375,7 +29375,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J27" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29399,28 +29399,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>107.894903029185</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V27" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>212.8404435700393</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y27" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="28">
@@ -29454,52 +29454,52 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J28" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K28" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L28" t="n">
-        <v>31.33949144013917</v>
+        <v>71.23506400934819</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N28" t="n">
-        <v>88.05718741956832</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O28" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P28" t="n">
-        <v>212.8404435700393</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q28" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R28" t="n">
-        <v>212.8404435700393</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="T28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="U28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="W28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="X28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Y28" t="n">
-        <v>212.8404435700393</v>
+        <v>212.8404435700394</v>
       </c>
     </row>
     <row r="29">
@@ -29545,7 +29545,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8404435700388</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="O29" t="n">
         <v>212.8404435700394</v>
@@ -29557,7 +29557,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8404435700394</v>
+        <v>212.8404435700389</v>
       </c>
       <c r="S29" t="n">
         <v>212.8404435700394</v>
@@ -29588,10 +29588,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>176.7504943976657</v>
+        <v>161.0978951013911</v>
       </c>
       <c r="C30" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29612,7 +29612,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J30" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29636,25 +29636,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>191.4697362153245</v>
       </c>
       <c r="T30" t="n">
         <v>212.8404435700394</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" t="n">
         <v>212.8404435700394</v>
-      </c>
-      <c r="W30" t="n">
-        <v>212.8404435700394</v>
-      </c>
-      <c r="X30" t="n">
-        <v>122.6141448468435</v>
       </c>
       <c r="Y30" t="n">
         <v>212.8404435700394</v>
@@ -29691,28 +29691,28 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J31" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K31" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L31" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N31" t="n">
-        <v>166.6550359814215</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O31" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P31" t="n">
-        <v>57.81777162581079</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="Q31" t="n">
-        <v>212.8404435700394</v>
+        <v>208.7887676094643</v>
       </c>
       <c r="R31" t="n">
         <v>203.184286794587</v>
@@ -29776,7 +29776,7 @@
         <v>212.8404435700394</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8404435700388</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="M32" t="n">
         <v>212.8404435700394</v>
@@ -29828,7 +29828,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
         <v>159.1723150765785</v>
@@ -29849,7 +29849,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J33" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,22 +29873,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.3151594521598</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
+        <v>201.1394289647237</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>212.8404435700394</v>
       </c>
-      <c r="U33" t="n">
-        <v>212.8404435700394</v>
-      </c>
-      <c r="V33" t="n">
-        <v>97.29185280117002</v>
-      </c>
       <c r="W33" t="n">
-        <v>212.8404435700394</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>212.8404435700394</v>
@@ -29928,25 +29928,25 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J34" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K34" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L34" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M34" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N34" t="n">
-        <v>97.71334419501997</v>
+        <v>76.6021668448754</v>
       </c>
       <c r="O34" t="n">
-        <v>36.70659427566591</v>
+        <v>212.8404435700394</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8404435700394</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q34" t="n">
         <v>126.7594634122123</v>
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="C35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="D35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="E35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="F35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="H35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="J35" t="n">
-        <v>236.2350917786667</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="L35" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>129.7610207443976</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="O35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="P35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Q35" t="n">
-        <v>140.5719283276632</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R35" t="n">
-        <v>236.2350917786667</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S35" t="n">
-        <v>236.2350917786667</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T35" t="n">
-        <v>236.2350917786667</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Y35" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="36">
@@ -30062,10 +30062,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
@@ -30074,7 +30074,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>132.7208737546123</v>
       </c>
       <c r="G36" t="n">
         <v>148.7380872222379</v>
@@ -30086,7 +30086,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J36" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30113,19 +30113,19 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.80853499617137</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V36" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W36" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X36" t="n">
         <v>217.3129144394706</v>
@@ -30165,46 +30165,46 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J37" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K37" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L37" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36038278515805</v>
+        <v>109.0227763302236</v>
       </c>
       <c r="N37" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O37" t="n">
-        <v>120.4767204830278</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P37" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S37" t="n">
-        <v>236.2350917786667</v>
+        <v>235.3428244409627</v>
       </c>
       <c r="T37" t="n">
         <v>223.7382129287516</v>
       </c>
       <c r="U37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W37" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X37" t="n">
         <v>221.9194554082425</v>
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="C38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="D38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="E38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="F38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="H38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="J38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="K38" t="n">
-        <v>5.177760637566998</v>
+        <v>61.17123559216054</v>
       </c>
       <c r="L38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="M38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="N38" t="n">
-        <v>158.2123641736073</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Q38" t="n">
-        <v>236.2350917786668</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S38" t="n">
-        <v>227.2394267154775</v>
+        <v>227.2394267154776</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4125603583446</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="U38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Y38" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="39">
@@ -30323,7 +30323,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J39" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,28 +30344,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.037534323605957</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>99.5363562359075</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.4697362153245</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V39" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>63.1767949307899</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,49 +30399,49 @@
         <v>165.7758191012691</v>
       </c>
       <c r="I40" t="n">
-        <v>235.9619026906067</v>
+        <v>164.6886553331604</v>
       </c>
       <c r="J40" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K40" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L40" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N40" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O40" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P40" t="n">
-        <v>57.81777162581079</v>
+        <v>175.5309701549562</v>
       </c>
       <c r="Q40" t="n">
         <v>126.7594634122123</v>
       </c>
       <c r="R40" t="n">
-        <v>236.2350917786668</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S40" t="n">
-        <v>236.2350917786668</v>
+        <v>235.3428244409627</v>
       </c>
       <c r="T40" t="n">
-        <v>236.2350917786668</v>
+        <v>223.7382129287516</v>
       </c>
       <c r="U40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W40" t="n">
-        <v>236.2350917786668</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X40" t="n">
         <v>221.9194554082425</v>
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="C41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="D41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="E41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="F41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="G41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="H41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="I41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="J41" t="n">
-        <v>236.2350917786667</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K41" t="n">
-        <v>140.5719283276634</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="M41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="N41" t="n">
-        <v>236.2350917786667</v>
+        <v>199.3224939866365</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="P41" t="n">
-        <v>236.2350917786667</v>
+        <v>13.34037157088128</v>
       </c>
       <c r="Q41" t="n">
-        <v>236.2350917786667</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="S41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="T41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="U41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
     </row>
     <row r="42">
@@ -30536,7 +30536,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
@@ -30560,7 +30560,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J42" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R42" t="n">
         <v>134.3151594521598</v>
@@ -30590,19 +30590,19 @@
         <v>191.4697362153245</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9446545048526</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>150.3774854396374</v>
+        <v>201.4562885624151</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30639,31 +30639,31 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J43" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K43" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L43" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36038278515805</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N43" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O43" t="n">
-        <v>154.4197928048116</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P43" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q43" t="n">
-        <v>126.7594634122123</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="R43" t="n">
-        <v>203.184286794587</v>
+        <v>211.4218569572776</v>
       </c>
       <c r="S43" t="n">
         <v>235.3428244409627</v>
@@ -30672,13 +30672,13 @@
         <v>223.7382129287516</v>
       </c>
       <c r="U43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="V43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="W43" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786669</v>
       </c>
       <c r="X43" t="n">
         <v>221.9194554082425</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="C44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="D44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="E44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="F44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="G44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="H44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="I44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="J44" t="n">
-        <v>75.74779675011996</v>
+        <v>75.74779675012002</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="L44" t="n">
-        <v>236.2350917786667</v>
+        <v>32.36899788251719</v>
       </c>
       <c r="M44" t="n">
-        <v>64.82413157754395</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="O44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="P44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Q44" t="n">
-        <v>236.2350917786667</v>
+        <v>88.39635779869053</v>
       </c>
       <c r="R44" t="n">
-        <v>236.2350917786667</v>
+        <v>194.1163990953234</v>
       </c>
       <c r="S44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="T44" t="n">
-        <v>236.2350917786667</v>
+        <v>222.4125603583446</v>
       </c>
       <c r="U44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="Y44" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
     </row>
     <row r="45">
@@ -30797,7 +30797,7 @@
         <v>107.1390224876151</v>
       </c>
       <c r="J45" t="n">
-        <v>51.85943295535301</v>
+        <v>51.85943295535305</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.037534323605957</v>
+        <v>6.037534323606007</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3151594521598</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4697362153245</v>
+        <v>76.06143794638024</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9446545048526</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V45" t="n">
-        <v>182.5341112232184</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>236.2350917786667</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30876,46 +30876,46 @@
         <v>164.6886553331604</v>
       </c>
       <c r="J46" t="n">
-        <v>119.853313707886</v>
+        <v>119.8533137078861</v>
       </c>
       <c r="K46" t="n">
-        <v>66.39518063773789</v>
+        <v>66.39518063773792</v>
       </c>
       <c r="L46" t="n">
-        <v>31.33949144013917</v>
+        <v>31.33949144013922</v>
       </c>
       <c r="M46" t="n">
-        <v>95.6336301426052</v>
+        <v>24.3603827851581</v>
       </c>
       <c r="N46" t="n">
-        <v>15.6840399977678</v>
+        <v>15.68403999776786</v>
       </c>
       <c r="O46" t="n">
-        <v>36.70659427566591</v>
+        <v>36.70659427566596</v>
       </c>
       <c r="P46" t="n">
-        <v>57.81777162581079</v>
+        <v>57.81777162581083</v>
       </c>
       <c r="Q46" t="n">
-        <v>126.7594634122123</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="R46" t="n">
-        <v>236.2350917786667</v>
+        <v>203.184286794587</v>
       </c>
       <c r="S46" t="n">
-        <v>236.2350917786667</v>
+        <v>235.3428244409627</v>
       </c>
       <c r="T46" t="n">
-        <v>236.2350917786667</v>
+        <v>231.9757830914425</v>
       </c>
       <c r="U46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="V46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="W46" t="n">
-        <v>236.2350917786667</v>
+        <v>236.2350917786668</v>
       </c>
       <c r="X46" t="n">
         <v>221.9194554082425</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H11" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I11" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J11" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K11" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L11" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M11" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N11" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O11" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P11" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R11" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S11" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T11" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U11" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H12" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I12" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J12" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K12" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L12" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M12" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N12" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O12" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P12" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q12" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R12" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S12" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H13" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I13" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J13" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K13" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L13" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M13" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N13" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O13" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P13" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R13" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S13" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H14" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I14" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J14" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K14" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L14" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M14" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N14" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O14" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P14" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R14" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S14" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T14" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U14" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H15" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I15" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J15" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K15" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L15" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M15" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N15" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O15" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P15" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q15" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R15" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S15" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H16" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I16" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J16" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K16" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L16" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M16" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N16" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O16" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P16" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R16" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S16" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H17" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I17" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J17" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K17" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L17" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M17" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N17" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O17" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P17" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R17" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S17" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T17" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U17" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H18" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I18" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J18" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K18" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L18" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M18" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N18" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O18" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P18" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q18" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R18" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S18" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H19" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I19" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J19" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K19" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L19" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M19" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N19" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O19" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P19" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R19" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S19" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H20" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I20" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J20" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K20" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L20" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M20" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N20" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O20" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P20" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R20" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S20" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T20" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U20" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H21" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I21" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J21" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K21" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L21" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M21" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N21" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O21" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P21" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q21" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R21" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S21" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H22" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I22" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J22" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K22" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L22" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M22" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N22" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O22" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P22" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R22" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S22" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H23" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I23" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J23" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K23" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L23" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M23" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N23" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O23" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P23" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R23" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S23" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T23" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U23" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H24" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I24" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J24" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K24" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L24" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M24" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N24" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O24" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P24" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q24" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R24" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S24" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U24" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H25" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I25" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J25" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K25" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L25" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M25" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N25" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O25" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P25" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R25" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S25" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H26" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I26" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J26" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K26" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L26" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M26" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N26" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O26" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P26" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R26" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S26" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T26" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U26" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H27" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I27" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J27" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K27" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L27" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M27" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N27" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O27" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P27" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R27" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S27" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U27" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H28" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I28" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J28" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K28" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L28" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M28" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N28" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O28" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P28" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R28" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S28" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H29" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I29" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J29" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K29" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L29" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M29" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N29" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O29" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P29" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R29" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S29" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T29" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U29" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H30" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I30" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J30" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K30" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L30" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M30" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N30" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O30" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P30" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R30" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S30" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U30" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H31" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I31" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J31" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K31" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L31" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M31" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N31" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O31" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P31" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R31" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S31" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H32" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I32" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J32" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K32" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L32" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M32" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N32" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O32" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P32" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R32" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S32" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T32" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U32" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H33" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I33" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J33" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K33" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L33" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M33" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N33" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O33" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P33" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R33" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S33" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U33" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H34" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I34" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J34" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K34" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L34" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M34" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N34" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O34" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P34" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R34" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S34" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U34" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H35" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I35" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J35" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K35" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L35" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M35" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N35" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O35" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P35" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R35" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S35" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T35" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U35" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H36" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I36" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J36" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K36" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L36" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M36" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N36" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O36" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P36" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q36" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R36" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S36" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U36" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H37" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I37" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J37" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K37" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L37" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M37" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N37" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O37" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P37" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R37" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S37" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U37" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H38" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I38" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J38" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K38" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L38" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M38" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N38" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O38" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P38" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R38" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S38" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T38" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U38" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H39" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I39" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J39" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K39" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L39" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M39" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N39" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O39" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P39" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q39" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R39" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S39" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H40" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I40" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J40" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K40" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L40" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M40" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N40" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O40" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P40" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R40" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S40" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U40" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H41" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I41" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J41" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K41" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L41" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M41" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N41" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O41" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P41" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R41" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S41" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T41" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U41" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H42" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I42" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J42" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K42" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L42" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M42" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N42" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O42" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P42" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q42" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R42" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S42" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H43" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I43" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J43" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K43" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L43" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M43" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N43" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O43" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P43" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R43" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S43" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U43" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188998381824002</v>
+        <v>0.4188998381823995</v>
       </c>
       <c r="H44" t="n">
-        <v>4.290057967785507</v>
+        <v>4.2900579677855</v>
       </c>
       <c r="I44" t="n">
-        <v>16.149636011527</v>
+        <v>16.14963601152697</v>
       </c>
       <c r="J44" t="n">
-        <v>35.55360014093352</v>
+        <v>35.55360014093345</v>
       </c>
       <c r="K44" t="n">
-        <v>53.28563029119453</v>
+        <v>53.28563029119444</v>
       </c>
       <c r="L44" t="n">
-        <v>66.10553621396917</v>
+        <v>66.10553621396906</v>
       </c>
       <c r="M44" t="n">
-        <v>73.55514621124543</v>
+        <v>73.5551462112453</v>
       </c>
       <c r="N44" t="n">
-        <v>74.74534537648118</v>
+        <v>74.74534537648105</v>
       </c>
       <c r="O44" t="n">
-        <v>70.57991011055493</v>
+        <v>70.57991011055481</v>
       </c>
       <c r="P44" t="n">
-        <v>60.23832035542692</v>
+        <v>60.23832035542681</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.2364699005197</v>
+        <v>45.23646990051962</v>
       </c>
       <c r="R44" t="n">
-        <v>26.31371696022522</v>
+        <v>26.31371696022517</v>
       </c>
       <c r="S44" t="n">
-        <v>9.545680062581454</v>
+        <v>9.545680062581436</v>
       </c>
       <c r="T44" t="n">
-        <v>1.833734041643458</v>
+        <v>1.833734041643454</v>
       </c>
       <c r="U44" t="n">
-        <v>0.033511987054592</v>
+        <v>0.03351198705459195</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2241311728539136</v>
+        <v>0.2241311728539132</v>
       </c>
       <c r="H45" t="n">
-        <v>2.164635274668061</v>
+        <v>2.164635274668057</v>
       </c>
       <c r="I45" t="n">
-        <v>7.716796960101852</v>
+        <v>7.716796960101838</v>
       </c>
       <c r="J45" t="n">
-        <v>21.17548067739541</v>
+        <v>21.17548067739538</v>
       </c>
       <c r="K45" t="n">
-        <v>36.19226925860762</v>
+        <v>36.19226925860756</v>
       </c>
       <c r="L45" t="n">
-        <v>48.66497242163594</v>
+        <v>48.66497242163586</v>
       </c>
       <c r="M45" t="n">
-        <v>56.7897274375903</v>
+        <v>56.7897274375902</v>
       </c>
       <c r="N45" t="n">
-        <v>58.29278253975537</v>
+        <v>58.29278253975527</v>
       </c>
       <c r="O45" t="n">
-        <v>53.32650760441339</v>
+        <v>53.32650760441329</v>
       </c>
       <c r="P45" t="n">
-        <v>42.79922370049865</v>
+        <v>42.79922370049857</v>
       </c>
       <c r="Q45" t="n">
-        <v>28.6101476085101</v>
+        <v>28.61014760851005</v>
       </c>
       <c r="R45" t="n">
-        <v>13.91579334614036</v>
+        <v>13.91579334614034</v>
       </c>
       <c r="S45" t="n">
-        <v>4.163138232615454</v>
+        <v>4.163138232615447</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9034059116348533</v>
+        <v>0.9034059116348517</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0147454718982838</v>
+        <v>0.01474547189828377</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1879040462666546</v>
+        <v>0.1879040462666543</v>
       </c>
       <c r="H46" t="n">
-        <v>1.670637793170803</v>
+        <v>1.6706377931708</v>
       </c>
       <c r="I46" t="n">
-        <v>5.650787136819034</v>
+        <v>5.650787136819024</v>
       </c>
       <c r="J46" t="n">
-        <v>13.28481607105248</v>
+        <v>13.28481607105246</v>
       </c>
       <c r="K46" t="n">
-        <v>21.83103373898042</v>
+        <v>21.83103373898038</v>
       </c>
       <c r="L46" t="n">
-        <v>27.93620702404428</v>
+        <v>27.93620702404423</v>
       </c>
       <c r="M46" t="n">
-        <v>29.45481336159932</v>
+        <v>29.45481336159927</v>
       </c>
       <c r="N46" t="n">
-        <v>28.75444373460545</v>
+        <v>28.7544437346054</v>
       </c>
       <c r="O46" t="n">
-        <v>26.55938283049043</v>
+        <v>26.55938283049038</v>
       </c>
       <c r="P46" t="n">
-        <v>22.72614028665066</v>
+        <v>22.72614028665062</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.73440154692869</v>
+        <v>15.73440154692866</v>
       </c>
       <c r="R46" t="n">
-        <v>8.44884920758976</v>
+        <v>8.448849207589745</v>
       </c>
       <c r="S46" t="n">
-        <v>3.274655060847062</v>
+        <v>3.274655060847056</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8028627431393422</v>
+        <v>0.8028627431393409</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01024931161454481</v>
+        <v>0.01024931161454479</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
+        <v>49.11497697927649</v>
+      </c>
+      <c r="M11" t="n">
+        <v>83.81751137732806</v>
+      </c>
+      <c r="N11" t="n">
+        <v>80.66740144175225</v>
+      </c>
+      <c r="O11" t="n">
+        <v>36.61860963435598</v>
+      </c>
+      <c r="P11" t="n">
         <v>84.54481721446609</v>
       </c>
-      <c r="M11" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="N11" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="O11" t="n">
-        <v>71.13382237293939</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.99504263084118</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
+        <v>81.12886500378056</v>
+      </c>
+      <c r="N12" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="N12" t="n">
-        <v>81.12886500378056</v>
       </c>
       <c r="O12" t="n">
         <v>84.54481721446609</v>
@@ -35571,25 +35571,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>84.54481721446609</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>50.33881989281132</v>
       </c>
       <c r="P13" t="n">
-        <v>50.33881989281166</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.35197831395223</v>
+        <v>77.35197831395226</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9271549315775047</v>
+        <v>0.9271549315775474</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35644,22 +35644,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="K14" t="n">
-        <v>28.30144780052282</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>49.11497697927661</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M14" t="n">
-        <v>84.54481721446609</v>
+        <v>83.81751137732806</v>
       </c>
       <c r="N14" t="n">
-        <v>78.26221480760599</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O14" t="n">
-        <v>84.54481721446609</v>
+        <v>36.61860963435598</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9.995042630841237</v>
+        <v>2.405186634146416</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,13 +35732,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>84.54481721446609</v>
+        <v>81.12886500378056</v>
       </c>
       <c r="N15" t="n">
         <v>84.54481721446609</v>
       </c>
       <c r="O15" t="n">
-        <v>81.12886500378058</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="P15" t="n">
         <v>84.54481721446609</v>
@@ -35796,37 +35796,37 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.33562262489549</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>84.25812801827851</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
         <v>84.54481721446609</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
+        <v>5.097047563589515</v>
+      </c>
+      <c r="P16" t="n">
         <v>84.54481721446609</v>
       </c>
-      <c r="N16" t="n">
-        <v>43.14598099229746</v>
-      </c>
-      <c r="O16" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
       <c r="Q16" t="n">
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9271549315775616</v>
+        <v>0.9271549315775474</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35887,22 +35887,22 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.11497697927661</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M17" t="n">
-        <v>83.81751137732819</v>
+        <v>83.81751137732806</v>
       </c>
       <c r="N17" t="n">
-        <v>78.26221480760599</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O17" t="n">
-        <v>36.6186096343561</v>
+        <v>36.61860963435598</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>72.39689513743208</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35911,13 +35911,13 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>84.54481721446609</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>2.405186634145899</v>
+        <v>14.55310871118041</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35969,10 +35969,10 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>81.12886500378056</v>
+      </c>
+      <c r="N18" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="N18" t="n">
-        <v>81.12886500378056</v>
       </c>
       <c r="O18" t="n">
         <v>84.54481721446609</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.11497697927661</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M20" t="n">
-        <v>83.81751137732819</v>
+        <v>83.81751137732806</v>
       </c>
       <c r="N20" t="n">
-        <v>80.66740144175188</v>
+        <v>78.26221480760586</v>
       </c>
       <c r="O20" t="n">
-        <v>36.6186096343561</v>
+        <v>84.54481721446609</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,7 +36145,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.54481721446609</v>
+        <v>39.02379626850239</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>32.74119386164188</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.11497697927661</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M23" t="n">
-        <v>83.81751137732819</v>
+        <v>83.81751137732806</v>
       </c>
       <c r="N23" t="n">
+        <v>78.26221480760586</v>
+      </c>
+      <c r="O23" t="n">
+        <v>36.61860963435598</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.405186634146387</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="O23" t="n">
-        <v>84.54481721446609</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36443,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>81.12886500378056</v>
+      </c>
+      <c r="N24" t="n">
         <v>84.54481721446609</v>
-      </c>
-      <c r="N24" t="n">
-        <v>81.12886500378056</v>
       </c>
       <c r="O24" t="n">
         <v>84.54481721446609</v>
@@ -36595,7 +36595,7 @@
         <v>137.0926468199194</v>
       </c>
       <c r="K26" t="n">
-        <v>207.6626829324723</v>
+        <v>207.6626829324724</v>
       </c>
       <c r="L26" t="n">
         <v>261.9554205493159</v>
@@ -36604,19 +36604,19 @@
         <v>296.6579549473675</v>
       </c>
       <c r="N26" t="n">
-        <v>291.1026583776453</v>
+        <v>291.1026583776448</v>
       </c>
       <c r="O26" t="n">
         <v>249.4590532043954</v>
       </c>
       <c r="P26" t="n">
-        <v>199.5000719991581</v>
+        <v>199.5000719991582</v>
       </c>
       <c r="Q26" t="n">
         <v>124.4440857713489</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72404447471599</v>
+        <v>18.72404447471606</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L27" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M27" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N27" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O27" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P27" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36756,25 +36756,25 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>39.89557256920897</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>72.37314742180051</v>
+        <v>197.1564035722716</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>155.0226719442285</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.656156775452317</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0926468199195</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K29" t="n">
         <v>207.6626829324724</v>
       </c>
       <c r="L29" t="n">
-        <v>261.955420549316</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6579549473676</v>
+        <v>296.6579549473675</v>
       </c>
       <c r="N29" t="n">
-        <v>291.1026583776447</v>
+        <v>291.1026583776453</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4590532043955</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P29" t="n">
-        <v>199.5000719991583</v>
+        <v>199.5000719991582</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.444085771349</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72404447471608</v>
+        <v>18.72404447471553</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L30" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M30" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N30" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O30" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P30" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36999,16 +36999,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>150.9709959836537</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>155.0226719442286</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.08098015782713</v>
+        <v>82.02930419725197</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0926468199195</v>
+        <v>137.0926468199194</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6626829324724</v>
+        <v>207.6626829324723</v>
       </c>
       <c r="L32" t="n">
-        <v>261.9554205493154</v>
+        <v>261.9554205493159</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6579549473676</v>
+        <v>296.6579549473674</v>
       </c>
       <c r="N32" t="n">
-        <v>291.1026583776454</v>
+        <v>291.1026583776452</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4590532043955</v>
+        <v>249.4590532043954</v>
       </c>
       <c r="P32" t="n">
-        <v>199.5000719991583</v>
+        <v>199.5000719991581</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.444085771349</v>
+        <v>124.4440857713489</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72404447471608</v>
+        <v>18.72404447471601</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L33" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M33" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N33" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O33" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P33" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37236,13 +37236,13 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>82.02930419725216</v>
+        <v>60.91812684710754</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>176.1338492943734</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0226719442286</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,37 +37303,37 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>231.0573311410998</v>
       </c>
       <c r="L35" t="n">
-        <v>285.3500687579433</v>
+        <v>49.11497697927649</v>
       </c>
       <c r="M35" t="n">
-        <v>83.81751137732819</v>
+        <v>213.5785321217257</v>
       </c>
       <c r="N35" t="n">
-        <v>78.26221480760599</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O35" t="n">
-        <v>272.8537014130229</v>
+        <v>272.8537014130228</v>
       </c>
       <c r="P35" t="n">
         <v>222.8947202077856</v>
       </c>
       <c r="Q35" t="n">
-        <v>52.17557052897271</v>
+        <v>147.8387339799763</v>
       </c>
       <c r="R35" t="n">
-        <v>42.11869268334341</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>8.995665063189193</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>13.82253142032216</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L36" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M36" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N36" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O36" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P36" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37470,13 +37470,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>84.66239354506547</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>83.77012620736193</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -37485,10 +37485,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>33.05080498407973</v>
+        <v>33.05080498407983</v>
       </c>
       <c r="S37" t="n">
-        <v>0.8922673377039931</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -37540,37 +37540,37 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>160.4872950285469</v>
+        <v>160.4872950285468</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>55.99347495459345</v>
       </c>
       <c r="L38" t="n">
-        <v>285.3500687579434</v>
+        <v>285.3500687579433</v>
       </c>
       <c r="M38" t="n">
-        <v>320.052603155995</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N38" t="n">
-        <v>236.4745789812133</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O38" t="n">
-        <v>36.6186096343561</v>
+        <v>36.61860963435598</v>
       </c>
       <c r="P38" t="n">
-        <v>222.8947202077857</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q38" t="n">
-        <v>147.8387339799764</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.1186926833435</v>
+        <v>42.11869268334348</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>13.82253142032227</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L39" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M39" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N39" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O39" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P39" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.27324735744629</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37716,19 +37716,19 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>117.7131985291453</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>33.05080498407982</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.8922673377040784</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.49687884991522</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>160.4872950285468</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>135.3941676900964</v>
+        <v>231.0573311410998</v>
       </c>
       <c r="L41" t="n">
-        <v>49.11497697927661</v>
+        <v>285.3500687579434</v>
       </c>
       <c r="M41" t="n">
-        <v>320.0526031559949</v>
+        <v>320.052603155995</v>
       </c>
       <c r="N41" t="n">
-        <v>314.4973065862727</v>
+        <v>277.5847087942424</v>
       </c>
       <c r="O41" t="n">
-        <v>36.6186096343561</v>
+        <v>272.8537014130229</v>
       </c>
       <c r="P41" t="n">
-        <v>222.8947202077856</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>147.8387339799763</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>42.11869268334341</v>
+        <v>42.11869268334353</v>
       </c>
       <c r="S41" t="n">
-        <v>8.995665063189193</v>
+        <v>8.995665063189346</v>
       </c>
       <c r="T41" t="n">
-        <v>13.82253142032216</v>
+        <v>13.82253142032232</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L42" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M42" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N42" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O42" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P42" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>117.7131985291457</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>109.4756283664546</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>8.237570162690549</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38020,31 +38020,31 @@
         <v>231.0573311410997</v>
       </c>
       <c r="L44" t="n">
-        <v>285.3500687579433</v>
+        <v>81.48397486179368</v>
       </c>
       <c r="M44" t="n">
-        <v>148.6416429548721</v>
+        <v>320.0526031559949</v>
       </c>
       <c r="N44" t="n">
-        <v>78.26221480760599</v>
+        <v>314.4973065862727</v>
       </c>
       <c r="O44" t="n">
         <v>272.8537014130228</v>
       </c>
       <c r="P44" t="n">
-        <v>222.8947202077855</v>
+        <v>222.8947202077856</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.8387339799762</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>42.11869268334335</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>8.995665063189136</v>
+        <v>8.995665063189261</v>
       </c>
       <c r="T44" t="n">
-        <v>13.8225314203221</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>39.39918729404063</v>
+        <v>39.39918729404057</v>
       </c>
       <c r="L45" t="n">
-        <v>119.933172846831</v>
+        <v>119.9331728468309</v>
       </c>
       <c r="M45" t="n">
-        <v>185.1630873627279</v>
+        <v>185.1630873627278</v>
       </c>
       <c r="N45" t="n">
-        <v>208.6697523727114</v>
+        <v>208.6697523727113</v>
       </c>
       <c r="O45" t="n">
         <v>134.5818722735119</v>
       </c>
       <c r="P45" t="n">
-        <v>85.71432073369505</v>
+        <v>85.71432073369496</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>71.27324735744715</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,16 +38193,16 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>109.4756283664545</v>
       </c>
       <c r="R46" t="n">
-        <v>33.05080498407968</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0.8922673377039363</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.49687884991508</v>
+        <v>8.237570162690893</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
